--- a/data/trans_orig/P6711-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{207117FB-DEE9-436E-8C6C-265F7CE2A6DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{06BC8D2D-D79B-4FC1-93D4-7B76CF2A4D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{265EF287-73B0-456C-A539-A4DA98EC4473}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{53DDA8DE-4B56-416B-99DE-F2AD4BCDD820}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="727">
   <si>
     <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -93,2110 +93,2131 @@
     <t>9,11%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>14,33%</t>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>4,39%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
   </si>
   <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>20,9%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>21,76%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>17,67%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>16,9%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>11,42%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>16,15%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>54,09%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>26,3%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>57,74%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>41,78%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>57,75%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>27,23%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>16,28%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>54,77%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>50,5%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>30,79%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>19,07%</t>
+  </si>
+  <si>
+    <t>45,21%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>33,18%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>30,85%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>36,55%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>29,69%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>18,12%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>45,89%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>40,35%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>12,78%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>24,65%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>20,53%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>45,42%</t>
+  </si>
+  <si>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>49,35%</t>
+  </si>
+  <si>
+    <t>63,94%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>3,5%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>17,11%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>27,72%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>25,33%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>32,4%</t>
+  </si>
+  <si>
+    <t>46,28%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>27,17%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,09%</t>
+  </si>
+  <si>
+    <t>22,99%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
+  </si>
+  <si>
+    <t>34,86%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>28,19%</t>
+  </si>
+  <si>
+    <t>35,97%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>42,21%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>39,11%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,62%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>13,7%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>18,71%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,55%</t>
+  </si>
+  <si>
+    <t>20,68%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>48,09%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,06%</t>
+  </si>
+  <si>
+    <t>47,82%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>43,07%</t>
+  </si>
+  <si>
+    <t>47,36%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2015 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
+  </si>
+  <si>
+    <t>39,89%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>26,74%</t>
+  </si>
+  <si>
+    <t>39,5%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>11,52%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>51,02%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>36,41%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>19,5%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>15,14%</t>
+  </si>
+  <si>
+    <t>31,15%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>20,76%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>25,83%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>49,39%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>29,95%</t>
+  </si>
+  <si>
+    <t>40,98%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>18,39%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
     <t>4,28%</t>
   </si>
   <si>
-    <t>13,38%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>5,12%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>54,01%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>48,57%</t>
-  </si>
-  <si>
-    <t>67,92%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>55,2%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>11,76%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>21,89%</t>
+  </si>
+  <si>
+    <t>37,36%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>19,27%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>35,08%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>30,6%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>17,27%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>41,62%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>44,26%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>38,59%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>37,0%</t>
+  </si>
+  <si>
+    <t>56,23%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>52,41%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>20,21%</t>
+  </si>
+  <si>
+    <t>42,77%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>30,28%</t>
+  </si>
+  <si>
+    <t>52,09%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>21,42%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>17,78%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>53,41%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>32,23%</t>
+  </si>
+  <si>
+    <t>45,97%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>15,4%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>25,55%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>14,26%</t>
+  </si>
+  <si>
+    <t>29,74%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>22,66%</t>
+  </si>
+  <si>
+    <t>24,8%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>19,65%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>17,24%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>19,0%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>17,85%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>31,04%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>27,44%</t>
   </si>
   <si>
     <t>13,22%</t>
   </si>
   <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>10,46%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>11,59%</t>
-  </si>
-  <si>
-    <t>21,77%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>27,34%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>41,94%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>57,14%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>15,82%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>15,29%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>22,94%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>15,26%</t>
+  </si>
+  <si>
+    <t>23,94%</t>
+  </si>
+  <si>
+    <t>19,8%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>18,63%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>39,49%</t>
+  </si>
+  <si>
+    <t>51,06%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>43,51%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>46,18%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>31,81%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>14,71%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>20,38%</t>
+  </si>
+  <si>
+    <t>24,96%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>24,37%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>25,02%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
   </si>
   <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>27,53%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>53,84%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>44,81%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>23,8%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>19,82%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>25,08%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>30,77%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,81%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>17,84%</t>
-  </si>
-  <si>
-    <t>27,68%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>25,81%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>18,23%</t>
-  </si>
-  <si>
-    <t>27,47%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>31,43%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>27,32%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>4,19%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,39%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>15,03%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>31,49%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>37,68%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>32,3%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>32,21%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>23,18%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>12,83%</t>
-  </si>
-  <si>
-    <t>16,57%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>17,98%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,54%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>21,05%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>20,28%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>29,93%</t>
-  </si>
-  <si>
-    <t>27,42%</t>
-  </si>
-  <si>
-    <t>24,32%</t>
-  </si>
-  <si>
-    <t>28,0%</t>
+    <t>24,34%</t>
+  </si>
+  <si>
+    <t>27,96%</t>
   </si>
 </sst>
 </file>
@@ -2608,7 +2629,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACC4544D-6175-4B75-9D24-0A4D8F8DADA5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CAB6EF-A9B7-4CB5-A46E-02E374682D6E}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3671,13 +3692,13 @@
         <v>17384</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>33</v>
+        <v>119</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -3686,13 +3707,13 @@
         <v>17478</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>42</v>
+        <v>122</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -3701,13 +3722,13 @@
         <v>34861</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3743,13 @@
         <v>30402</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>73</v>
+        <v>129</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -3737,13 +3758,13 @@
         <v>29263</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="M24" s="7">
         <v>58</v>
@@ -3752,13 +3773,13 @@
         <v>59665</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,13 +3794,13 @@
         <v>28333</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -3788,13 +3809,13 @@
         <v>20500</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -3803,13 +3824,13 @@
         <v>48833</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3824,13 +3845,13 @@
         <v>130557</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
@@ -3839,13 +3860,13 @@
         <v>79181</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>194</v>
@@ -3854,13 +3875,13 @@
         <v>209738</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3916,7 +3937,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3928,13 +3949,13 @@
         <v>17159</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -3943,13 +3964,13 @@
         <v>17476</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -3958,13 +3979,13 @@
         <v>34635</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +4000,13 @@
         <v>8222</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -3994,13 +4015,13 @@
         <v>10360</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -4009,13 +4030,13 @@
         <v>18582</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4030,13 +4051,13 @@
         <v>21570</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -4045,13 +4066,13 @@
         <v>7905</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>98</v>
+        <v>176</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -4060,13 +4081,13 @@
         <v>29474</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4081,13 +4102,13 @@
         <v>7018</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -4096,13 +4117,13 @@
         <v>4154</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -4111,13 +4132,13 @@
         <v>11172</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4132,13 +4153,13 @@
         <v>28345</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="H32" s="7">
         <v>16</v>
@@ -4147,13 +4168,13 @@
         <v>15739</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="M32" s="7">
         <v>41</v>
@@ -4162,13 +4183,13 @@
         <v>44084</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4224,7 +4245,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4236,13 +4257,13 @@
         <v>8089</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -4251,13 +4272,13 @@
         <v>6546</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>203</v>
+        <v>116</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -4266,13 +4287,13 @@
         <v>14635</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4287,13 +4308,13 @@
         <v>6980</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -4302,13 +4323,13 @@
         <v>2823</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>51</v>
+        <v>212</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -4317,13 +4338,13 @@
         <v>9803</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4338,13 +4359,13 @@
         <v>18243</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -4353,13 +4374,13 @@
         <v>7739</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M36" s="7">
         <v>23</v>
@@ -4368,13 +4389,13 @@
         <v>25983</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4389,13 +4410,13 @@
         <v>19725</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>214</v>
+        <v>227</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -4404,13 +4425,13 @@
         <v>5738</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M37" s="7">
         <v>25</v>
@@ -4419,13 +4440,13 @@
         <v>25463</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4440,13 +4461,13 @@
         <v>65228</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="H38" s="7">
         <v>30</v>
@@ -4455,13 +4476,13 @@
         <v>32446</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="M38" s="7">
         <v>91</v>
@@ -4470,13 +4491,13 @@
         <v>97674</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4532,7 +4553,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4544,13 +4565,13 @@
         <v>20147</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="H40" s="7">
         <v>16</v>
@@ -4559,13 +4580,13 @@
         <v>17341</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="M40" s="7">
         <v>36</v>
@@ -4574,13 +4595,13 @@
         <v>37489</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>247</v>
+        <v>83</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4595,13 +4616,13 @@
         <v>14462</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="H41" s="7">
         <v>9</v>
@@ -4610,13 +4631,13 @@
         <v>9719</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="M41" s="7">
         <v>23</v>
@@ -4625,13 +4646,13 @@
         <v>24181</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4646,13 +4667,13 @@
         <v>69063</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="H42" s="7">
         <v>23</v>
@@ -4661,13 +4682,13 @@
         <v>25455</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>34</v>
+        <v>264</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>259</v>
+        <v>47</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
       <c r="M42" s="7">
         <v>84</v>
@@ -4676,13 +4697,13 @@
         <v>94518</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4697,13 +4718,13 @@
         <v>59369</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="H43" s="7">
         <v>33</v>
@@ -4712,13 +4733,13 @@
         <v>34391</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="M43" s="7">
         <v>92</v>
@@ -4727,13 +4748,13 @@
         <v>93760</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4748,13 +4769,13 @@
         <v>108033</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="H44" s="7">
         <v>90</v>
@@ -4763,13 +4784,13 @@
         <v>95258</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="M44" s="7">
         <v>188</v>
@@ -4778,13 +4799,13 @@
         <v>203291</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,7 +4861,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4852,13 +4873,13 @@
         <v>27297</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>283</v>
+        <v>207</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="H46" s="7">
         <v>24</v>
@@ -4867,13 +4888,13 @@
         <v>27234</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M46" s="7">
         <v>48</v>
@@ -4882,13 +4903,13 @@
         <v>54531</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4903,13 +4924,13 @@
         <v>13862</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>291</v>
+        <v>120</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="H47" s="7">
         <v>13</v>
@@ -4918,13 +4939,13 @@
         <v>13783</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>294</v>
+        <v>254</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M47" s="7">
         <v>26</v>
@@ -4933,13 +4954,13 @@
         <v>27645</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>71</v>
+        <v>298</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4954,13 +4975,13 @@
         <v>78179</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="H48" s="7">
         <v>40</v>
@@ -4969,13 +4990,13 @@
         <v>43153</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M48" s="7">
         <v>113</v>
@@ -4984,13 +5005,13 @@
         <v>121332</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5005,13 +5026,13 @@
         <v>107376</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="H49" s="7">
         <v>82</v>
@@ -5020,13 +5041,13 @@
         <v>89987</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="M49" s="7">
         <v>184</v>
@@ -5035,13 +5056,13 @@
         <v>197364</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>313</v>
+        <v>263</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5056,13 +5077,13 @@
         <v>135517</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="H50" s="7">
         <v>75</v>
@@ -5071,13 +5092,13 @@
         <v>84353</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>320</v>
+        <v>93</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="M50" s="7">
         <v>200</v>
@@ -5086,13 +5107,13 @@
         <v>219870</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5181,13 @@
         <v>159106</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H52" s="7">
         <v>120</v>
@@ -5175,13 +5196,13 @@
         <v>130995</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>133</v>
+        <v>331</v>
       </c>
       <c r="M52" s="7">
         <v>268</v>
@@ -5190,13 +5211,13 @@
         <v>290101</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>247</v>
+        <v>333</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5211,13 +5232,13 @@
         <v>85180</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H53" s="7">
         <v>65</v>
@@ -5226,13 +5247,13 @@
         <v>72949</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="M53" s="7">
         <v>146</v>
@@ -5241,13 +5262,13 @@
         <v>158129</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5262,13 +5283,13 @@
         <v>265481</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="H54" s="7">
         <v>130</v>
@@ -5277,13 +5298,13 @@
         <v>139432</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>200</v>
+        <v>348</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M54" s="7">
         <v>377</v>
@@ -5292,13 +5313,13 @@
         <v>404913</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5313,13 +5334,13 @@
         <v>262402</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="H55" s="7">
         <v>169</v>
@@ -5328,13 +5349,13 @@
         <v>179957</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="M55" s="7">
         <v>424</v>
@@ -5343,13 +5364,13 @@
         <v>442358</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5364,13 +5385,13 @@
         <v>645791</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H56" s="7">
         <v>389</v>
@@ -5379,13 +5400,13 @@
         <v>421957</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="M56" s="7">
         <v>989</v>
@@ -5394,13 +5415,13 @@
         <v>1067748</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5456,7 +5477,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -5480,7 +5501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FB737D0-96E3-41F8-912F-BA64249FD9B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B42DAE-EC29-4C1D-8E16-4A5596FC5026}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5497,7 +5518,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5604,13 +5625,13 @@
         <v>41722</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -5619,13 +5640,13 @@
         <v>36231</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>372</v>
+        <v>93</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -5634,13 +5655,13 @@
         <v>77953</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5655,13 +5676,13 @@
         <v>6913</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>379</v>
+        <v>217</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5670,13 +5691,13 @@
         <v>6223</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>384</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -5685,13 +5706,13 @@
         <v>13136</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5706,13 +5727,13 @@
         <v>13941</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -5721,13 +5742,13 @@
         <v>11298</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -5736,13 +5757,13 @@
         <v>25239</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5757,13 +5778,13 @@
         <v>12746</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>394</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>395</v>
+        <v>246</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5772,13 +5793,13 @@
         <v>5559</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5787,10 +5808,10 @@
         <v>18306</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>400</v>
+        <v>68</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>401</v>
@@ -5915,10 +5936,10 @@
         <v>411</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>73</v>
+        <v>412</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -5927,13 +5948,13 @@
         <v>25209</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -5942,13 +5963,13 @@
         <v>46283</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5963,13 +5984,13 @@
         <v>26254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>420</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -5978,13 +5999,13 @@
         <v>15264</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -5993,13 +6014,13 @@
         <v>41519</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>427</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>425</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6014,13 +6035,13 @@
         <v>41672</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -6029,13 +6050,13 @@
         <v>17237</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>384</v>
+        <v>20</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M12" s="7">
         <v>57</v>
@@ -6044,13 +6065,13 @@
         <v>58909</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>431</v>
+        <v>133</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6065,7 +6086,7 @@
         <v>26475</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>435</v>
@@ -6080,13 +6101,13 @@
         <v>10610</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>437</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -6095,13 +6116,13 @@
         <v>37085</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>441</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6116,13 +6137,13 @@
         <v>54822</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -6131,13 +6152,13 @@
         <v>45359</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="M14" s="7">
         <v>94</v>
@@ -6146,13 +6167,13 @@
         <v>100181</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6220,13 +6241,13 @@
         <v>28919</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -6235,13 +6256,13 @@
         <v>21688</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>440</v>
+        <v>349</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -6250,13 +6271,13 @@
         <v>50607</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6271,13 +6292,13 @@
         <v>14991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -6286,13 +6307,13 @@
         <v>7666</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -6301,13 +6322,13 @@
         <v>22657</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6322,13 +6343,13 @@
         <v>37427</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -6337,13 +6358,13 @@
         <v>23078</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>348</v>
+        <v>473</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
@@ -6352,13 +6373,13 @@
         <v>60506</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6373,13 +6394,13 @@
         <v>28306</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -6388,13 +6409,13 @@
         <v>18862</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -6403,13 +6424,13 @@
         <v>47168</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>430</v>
+        <v>484</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6424,13 +6445,13 @@
         <v>16742</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -6439,13 +6460,13 @@
         <v>13038</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>175</v>
+        <v>492</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -6454,13 +6475,13 @@
         <v>29780</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>488</v>
+        <v>143</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6528,13 +6549,13 @@
         <v>35145</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -6543,13 +6564,13 @@
         <v>26602</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -6558,13 +6579,13 @@
         <v>61747</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6579,13 +6600,13 @@
         <v>3936</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6594,13 +6615,13 @@
         <v>4629</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -6609,13 +6630,13 @@
         <v>8565</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>505</v>
+        <v>510</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>506</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6630,13 +6651,13 @@
         <v>14080</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>507</v>
+        <v>157</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -6645,13 +6666,13 @@
         <v>7607</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>511</v>
+        <v>71</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -6660,13 +6681,13 @@
         <v>21688</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6681,13 +6702,13 @@
         <v>6483</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>339</v>
+        <v>519</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6696,13 +6717,13 @@
         <v>9419</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>386</v>
+        <v>523</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>519</v>
+        <v>524</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -6711,13 +6732,13 @@
         <v>15902</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>520</v>
+        <v>506</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6732,13 +6753,13 @@
         <v>52536</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -6747,13 +6768,13 @@
         <v>33602</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="M26" s="7">
         <v>82</v>
@@ -6762,13 +6783,13 @@
         <v>86138</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6824,7 +6845,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6836,13 +6857,13 @@
         <v>1904</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6851,13 +6872,13 @@
         <v>2501</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>535</v>
+        <v>208</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -6866,13 +6887,13 @@
         <v>4405</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6887,13 +6908,13 @@
         <v>12689</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -6902,13 +6923,13 @@
         <v>7131</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -6917,13 +6938,13 @@
         <v>19819</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>547</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6938,13 +6959,13 @@
         <v>25028</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>445</v>
+        <v>406</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -6953,13 +6974,13 @@
         <v>16834</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="M30" s="7">
         <v>43</v>
@@ -6968,13 +6989,13 @@
         <v>41861</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6989,13 +7010,13 @@
         <v>33333</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -7004,13 +7025,13 @@
         <v>23507</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="M31" s="7">
         <v>59</v>
@@ -7019,13 +7040,13 @@
         <v>56840</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7040,13 +7061,13 @@
         <v>7978</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -7055,13 +7076,13 @@
         <v>5445</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>568</v>
+        <v>340</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>254</v>
+        <v>570</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>351</v>
+        <v>571</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -7073,10 +7094,10 @@
         <v>67</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7132,7 +7153,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7144,13 +7165,13 @@
         <v>1634</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -7159,13 +7180,13 @@
         <v>4305</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>174</v>
+        <v>576</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -7174,13 +7195,13 @@
         <v>5939</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>185</v>
+        <v>581</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7195,13 +7216,13 @@
         <v>19236</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>577</v>
+        <v>582</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>578</v>
+        <v>583</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>579</v>
+        <v>584</v>
       </c>
       <c r="H35" s="7">
         <v>21</v>
@@ -7210,13 +7231,13 @@
         <v>19724</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>581</v>
+        <v>586</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>582</v>
+        <v>587</v>
       </c>
       <c r="M35" s="7">
         <v>40</v>
@@ -7225,13 +7246,13 @@
         <v>38960</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>583</v>
+        <v>588</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>127</v>
+        <v>589</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7246,13 +7267,13 @@
         <v>46792</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>586</v>
+        <v>191</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>587</v>
+        <v>592</v>
       </c>
       <c r="H36" s="7">
         <v>26</v>
@@ -7261,13 +7282,13 @@
         <v>25339</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>588</v>
+        <v>593</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>589</v>
+        <v>594</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>590</v>
+        <v>367</v>
       </c>
       <c r="M36" s="7">
         <v>71</v>
@@ -7276,13 +7297,13 @@
         <v>72131</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>317</v>
+        <v>596</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>592</v>
+        <v>597</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7297,13 +7318,13 @@
         <v>16922</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -7312,13 +7333,13 @@
         <v>18250</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>597</v>
+        <v>602</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="M37" s="7">
         <v>35</v>
@@ -7327,13 +7348,13 @@
         <v>35173</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>599</v>
+        <v>604</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>600</v>
+        <v>220</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7348,13 +7369,13 @@
         <v>22918</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="H38" s="7">
         <v>7</v>
@@ -7363,13 +7384,13 @@
         <v>7949</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>76</v>
+        <v>610</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>606</v>
+        <v>611</v>
       </c>
       <c r="M38" s="7">
         <v>29</v>
@@ -7378,13 +7399,13 @@
         <v>30868</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>353</v>
+        <v>612</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>607</v>
+        <v>247</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7440,7 +7461,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7452,13 +7473,13 @@
         <v>71916</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>609</v>
+        <v>513</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>438</v>
+        <v>479</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="H40" s="7">
         <v>67</v>
@@ -7467,13 +7488,13 @@
         <v>70190</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="M40" s="7">
         <v>131</v>
@@ -7482,13 +7503,13 @@
         <v>142106</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>615</v>
+        <v>160</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7503,13 +7524,13 @@
         <v>78448</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
       <c r="H41" s="7">
         <v>63</v>
@@ -7518,13 +7539,13 @@
         <v>63887</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>622</v>
+        <v>590</v>
       </c>
       <c r="M41" s="7">
         <v>133</v>
@@ -7533,13 +7554,13 @@
         <v>142335</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7554,13 +7575,13 @@
         <v>79970</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="H42" s="7">
         <v>70</v>
@@ -7569,13 +7590,13 @@
         <v>73788</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>356</v>
+        <v>632</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
       <c r="M42" s="7">
         <v>140</v>
@@ -7584,13 +7605,13 @@
         <v>153759</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7605,13 +7626,13 @@
         <v>47578</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>75</v>
+        <v>637</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>565</v>
+        <v>638</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="H43" s="7">
         <v>31</v>
@@ -7620,13 +7641,13 @@
         <v>31481</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>635</v>
+        <v>66</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>240</v>
+        <v>338</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>636</v>
+        <v>22</v>
       </c>
       <c r="M43" s="7">
         <v>69</v>
@@ -7635,13 +7656,13 @@
         <v>79059</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
       <c r="P43" s="7" t="s">
         <v>638</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7656,13 +7677,13 @@
         <v>82014</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="H44" s="7">
         <v>43</v>
@@ -7671,13 +7692,13 @@
         <v>45520</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="M44" s="7">
         <v>114</v>
@@ -7686,13 +7707,13 @@
         <v>127534</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>85</v>
+        <v>649</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>491</v>
+        <v>650</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7748,7 +7769,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7760,13 +7781,13 @@
         <v>6665</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>381</v>
+        <v>651</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>647</v>
+        <v>652</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="H46" s="7">
         <v>7</v>
@@ -7775,13 +7796,13 @@
         <v>7675</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>297</v>
+        <v>656</v>
       </c>
       <c r="M46" s="7">
         <v>13</v>
@@ -7790,13 +7811,13 @@
         <v>14340</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>652</v>
+        <v>658</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>653</v>
+        <v>659</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7811,13 +7832,13 @@
         <v>19928</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>654</v>
+        <v>660</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>655</v>
+        <v>27</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>656</v>
+        <v>661</v>
       </c>
       <c r="H47" s="7">
         <v>18</v>
@@ -7826,13 +7847,13 @@
         <v>18898</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>658</v>
+        <v>525</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>659</v>
+        <v>305</v>
       </c>
       <c r="M47" s="7">
         <v>37</v>
@@ -7841,13 +7862,13 @@
         <v>38826</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7862,13 +7883,13 @@
         <v>63916</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>596</v>
+        <v>668</v>
       </c>
       <c r="H48" s="7">
         <v>59</v>
@@ -7877,13 +7898,13 @@
         <v>61281</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="M48" s="7">
         <v>121</v>
@@ -7892,13 +7913,13 @@
         <v>125197</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>341</v>
+        <v>672</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7913,13 +7934,13 @@
         <v>148887</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>670</v>
+        <v>675</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="H49" s="7">
         <v>86</v>
@@ -7928,13 +7949,13 @@
         <v>89794</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>672</v>
+        <v>677</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>323</v>
+        <v>678</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>673</v>
+        <v>679</v>
       </c>
       <c r="M49" s="7">
         <v>228</v>
@@ -7943,13 +7964,13 @@
         <v>238681</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>674</v>
+        <v>680</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>675</v>
+        <v>681</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>676</v>
+        <v>682</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7964,13 +7985,13 @@
         <v>89541</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>678</v>
+        <v>684</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="H50" s="7">
         <v>61</v>
@@ -7979,13 +8000,13 @@
         <v>62823</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>680</v>
+        <v>686</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>681</v>
+        <v>687</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>682</v>
+        <v>688</v>
       </c>
       <c r="M50" s="7">
         <v>147</v>
@@ -7994,13 +8015,13 @@
         <v>152364</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>683</v>
+        <v>689</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>684</v>
+        <v>690</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>685</v>
+        <v>158</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8068,13 +8089,13 @@
         <v>208978</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>136</v>
+        <v>250</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>686</v>
+        <v>691</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>687</v>
+        <v>94</v>
       </c>
       <c r="H52" s="7">
         <v>187</v>
@@ -8083,13 +8104,13 @@
         <v>194402</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="M52" s="7">
         <v>377</v>
@@ -8098,13 +8119,13 @@
         <v>403380</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>570</v>
+        <v>695</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>177</v>
+        <v>696</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>691</v>
+        <v>697</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8119,13 +8140,13 @@
         <v>182394</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>692</v>
+        <v>698</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>693</v>
+        <v>83</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>694</v>
+        <v>699</v>
       </c>
       <c r="H53" s="7">
         <v>142</v>
@@ -8134,13 +8155,13 @@
         <v>143422</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>696</v>
+        <v>646</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>697</v>
+        <v>397</v>
       </c>
       <c r="M53" s="7">
         <v>310</v>
@@ -8149,13 +8170,13 @@
         <v>325816</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>607</v>
+        <v>701</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8170,13 +8191,13 @@
         <v>322826</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>699</v>
+        <v>499</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>700</v>
+        <v>703</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>701</v>
+        <v>704</v>
       </c>
       <c r="H54" s="7">
         <v>234</v>
@@ -8185,13 +8206,13 @@
         <v>236464</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>702</v>
+        <v>705</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>356</v>
+        <v>706</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>703</v>
+        <v>273</v>
       </c>
       <c r="M54" s="7">
         <v>540</v>
@@ -8200,13 +8221,13 @@
         <v>559290</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>704</v>
+        <v>707</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>705</v>
+        <v>708</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>706</v>
+        <v>709</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8221,13 +8242,13 @@
         <v>320729</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>678</v>
+        <v>710</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="H55" s="7">
         <v>205</v>
@@ -8236,13 +8257,13 @@
         <v>207484</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>709</v>
+        <v>712</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>710</v>
+        <v>713</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>711</v>
+        <v>714</v>
       </c>
       <c r="M55" s="7">
         <v>504</v>
@@ -8251,13 +8272,13 @@
         <v>528213</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>712</v>
+        <v>715</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>606</v>
+        <v>716</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8272,13 +8293,13 @@
         <v>387395</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="H56" s="7">
         <v>245</v>
@@ -8287,13 +8308,13 @@
         <v>255401</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>271</v>
+        <v>721</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>547</v>
+        <v>722</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>717</v>
+        <v>723</v>
       </c>
       <c r="M56" s="7">
         <v>605</v>
@@ -8302,13 +8323,13 @@
         <v>642796</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>541</v>
+        <v>724</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8364,7 +8385,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6711-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Provincia-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06BC8D2D-D79B-4FC1-93D4-7B76CF2A4D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8B2486E-C43A-4D25-BB1D-3D3E0871D793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{53DDA8DE-4B56-416B-99DE-F2AD4BCDD820}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F19F484-78C0-4B77-BE91-5B2C21135A05}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="721">
   <si>
     <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -93,2131 +93,2113 @@
     <t>9,11%</t>
   </si>
   <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
   </si>
   <si>
     <t>9,08%</t>
   </si>
   <si>
-    <t>6,19%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>12,92%</t>
   </si>
   <si>
     <t>7,53%</t>
   </si>
   <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
   </si>
   <si>
     <t>12,73%</t>
   </si>
   <si>
-    <t>6,89%</t>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>13,78%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>20,82%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>18,0%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>11,17%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>69,77%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>69,06%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>55,17%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>23,05%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>10,5%</t>
+  </si>
+  <si>
+    <t>25,44%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>24,7%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>40,31%</t>
+  </si>
+  <si>
+    <t>62,5%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>43,73%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>17,97%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>30,2%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>18,96%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>10,4%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>14,7%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>14,24%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>42,79%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>33,89%</t>
+  </si>
+  <si>
+    <t>49,78%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>12,36%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>46,02%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>33,02%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>29,93%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>17,44%</t>
+  </si>
+  <si>
+    <t>36,48%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>28,77%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>18,83%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>25,54%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>44,67%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>49,09%</t>
+  </si>
+  <si>
+    <t>64,48%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>20,08%</t>
+  </si>
+  <si>
+    <t>31,98%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,21%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,94%</t>
+  </si>
+  <si>
+    <t>25,32%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>24,4%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>44,89%</t>
+  </si>
+  <si>
+    <t>59,89%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>49,84%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>26,36%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>21,66%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,5%</t>
+  </si>
+  <si>
+    <t>23,16%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>24,86%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>29,23%</t>
+  </si>
+  <si>
+    <t>41,8%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>28,17%</t>
+  </si>
+  <si>
+    <t>35,89%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>32,04%</t>
+  </si>
+  <si>
+    <t>42,8%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>26,65%</t>
+  </si>
+  <si>
+    <t>38,88%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>39,41%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>13,11%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>9,55%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>20,83%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,41%</t>
+  </si>
+  <si>
+    <t>21,82%</t>
+  </si>
+  <si>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>42,99%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,32%</t>
+  </si>
+  <si>
+    <t>48,25%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>39,51%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>47,02%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>14,29%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>16,64%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>35,6%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>30,36%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>37,07%</t>
+  </si>
+  <si>
+    <t>50,46%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>19,13%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>31,1%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,17%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>21,55%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>21,0%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>19,81%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>15,96%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>40,01%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>31,09%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>16,23%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>16,98%</t>
+  </si>
+  <si>
+    <t>36,52%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>30,33%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>16,19%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>22,28%</t>
+  </si>
+  <si>
+    <t>34,52%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>16,07%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>32,62%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>28,78%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>8,68%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>19,42%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>41,76%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>15,9%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>20,96%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,48%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>36,36%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>30,73%</t>
+  </si>
+  <si>
+    <t>52,34%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>21,24%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>43,76%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>30,29%</t>
+  </si>
+  <si>
+    <t>53,16%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>51,11%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>17,93%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>27,3%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>32,03%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>35,59%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>25,64%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>29,75%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>11,8%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>24,41%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>18,73%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>26,57%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>27,49%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>25,46%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>18,16%</t>
+  </si>
+  <si>
+    <t>26,96%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>30,89%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>27,36%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>28,1%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>11,7%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>23,29%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>18,8%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>50,36%</t>
+  </si>
+  <si>
+    <t>31,21%</t>
+  </si>
+  <si>
+    <t>44,1%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>37,66%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>32,02%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
   </si>
   <si>
     <t>20,9%</t>
   </si>
   <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>21,76%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>16,9%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,76%</t>
-  </si>
-  <si>
-    <t>11,42%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>16,15%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>54,09%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>49,07%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>12,57%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>26,3%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>21,36%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>26,67%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>24,21%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>41,78%</t>
-  </si>
-  <si>
-    <t>63,36%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>18,0%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>29,62%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>54,77%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>50,5%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
+    <t>32,88%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>23,12%</t>
   </si>
   <si>
     <t>30,79%</t>
   </si>
   <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>19,07%</t>
-  </si>
-  <si>
-    <t>45,21%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>17,41%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>30,85%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>36,55%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>25,4%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>29,69%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>14,07%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>45,89%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>40,35%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>24,92%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>10,43%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>20,53%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>45,42%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>49,35%</t>
-  </si>
-  <si>
-    <t>63,94%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
     <t>14,69%</t>
   </si>
   <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>3,5%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>18,09%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>16,06%</t>
+  </si>
+  <si>
+    <t>11,89%</t>
+  </si>
+  <si>
+    <t>14,6%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
   </si>
   <si>
     <t>20,59%</t>
   </si>
   <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>17,11%</t>
-  </si>
-  <si>
     <t>25,15%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>25,33%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>32,4%</t>
-  </si>
-  <si>
-    <t>46,28%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>60,08%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>11,47%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>27,17%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,09%</t>
-  </si>
-  <si>
-    <t>22,99%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>25,0%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>41,58%</t>
-  </si>
-  <si>
-    <t>28,19%</t>
-  </si>
-  <si>
-    <t>35,97%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>42,21%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>39,11%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,62%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>13,7%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,84%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>18,71%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,55%</t>
-  </si>
-  <si>
-    <t>20,68%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>47,82%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>43,07%</t>
-  </si>
-  <si>
-    <t>47,36%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2015 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>39,89%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>26,74%</t>
-  </si>
-  <si>
-    <t>39,5%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>13,8%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>17,1%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>11,52%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>51,02%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>36,41%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>19,5%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>15,14%</t>
-  </si>
-  <si>
-    <t>31,15%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>11,9%</t>
-  </si>
-  <si>
-    <t>20,76%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>22,19%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>18,08%</t>
-  </si>
-  <si>
-    <t>31,87%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>22,41%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>16,11%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>49,39%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>29,95%</t>
-  </si>
-  <si>
-    <t>40,98%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,28%</t>
-  </si>
-  <si>
-    <t>16,85%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>21,89%</t>
-  </si>
-  <si>
-    <t>37,36%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>19,27%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>22,71%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>30,6%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>17,27%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>41,62%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>11,92%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>37,0%</t>
-  </si>
-  <si>
-    <t>56,23%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>52,41%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>37,67%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>42,77%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>23,27%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>30,28%</t>
-  </si>
-  <si>
-    <t>52,09%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>30,13%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>21,42%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>53,41%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>32,23%</t>
-  </si>
-  <si>
-    <t>45,97%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>15,4%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>14,26%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>22,66%</t>
-  </si>
-  <si>
-    <t>24,8%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>19,65%</t>
-  </si>
-  <si>
-    <t>30,01%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>25,62%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>17,24%</t>
-  </si>
-  <si>
-    <t>26,73%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>19,0%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>31,04%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>15,29%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>20,84%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>22,94%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>15,26%</t>
-  </si>
-  <si>
-    <t>23,94%</t>
-  </si>
-  <si>
-    <t>19,8%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>25,67%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>39,49%</t>
-  </si>
-  <si>
-    <t>51,06%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>43,51%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>46,18%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>31,81%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>14,71%</t>
-  </si>
-  <si>
-    <t>17,81%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>20,38%</t>
-  </si>
-  <si>
-    <t>24,96%</t>
-  </si>
-  <si>
     <t>22,8%</t>
   </si>
   <si>
-    <t>20,32%</t>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>25,34%</t>
   </si>
   <si>
     <t>22,74%</t>
   </si>
   <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>24,37%</t>
+    <t>24,48%</t>
   </si>
   <si>
     <t>22,55%</t>
   </si>
   <si>
-    <t>20,37%</t>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
   </si>
   <si>
     <t>20,0%</t>
   </si>
   <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>19,89%</t>
-  </si>
-  <si>
-    <t>23,34%</t>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
   </si>
   <si>
     <t>27,24%</t>
   </si>
   <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>29,79%</t>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
   </si>
   <si>
     <t>24,62%</t>
   </si>
   <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
   </si>
   <si>
     <t>26,14%</t>
   </si>
   <si>
-    <t>24,34%</t>
-  </si>
-  <si>
-    <t>27,96%</t>
+    <t>24,3%</t>
+  </si>
+  <si>
+    <t>28,06%</t>
   </si>
 </sst>
 </file>
@@ -2629,7 +2611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82CAB6EF-A9B7-4CB5-A46E-02E374682D6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E1D06D-A172-4F00-902A-962BBAB4E037}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3501,13 +3483,13 @@
         <v>13959</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -3516,13 +3498,13 @@
         <v>42830</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>97</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3537,13 +3519,13 @@
         <v>71119</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -3552,13 +3534,13 @@
         <v>43475</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -3567,13 +3549,13 @@
         <v>114594</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3629,7 +3611,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3641,13 +3623,13 @@
         <v>61960</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -3656,13 +3638,13 @@
         <v>43289</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="L22" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>96</v>
@@ -3671,13 +3653,13 @@
         <v>105249</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3692,13 +3674,13 @@
         <v>17384</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -3707,13 +3689,13 @@
         <v>17478</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M23" s="7">
         <v>31</v>
@@ -3722,13 +3704,13 @@
         <v>34861</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3743,13 +3725,13 @@
         <v>30402</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -3758,13 +3740,13 @@
         <v>29263</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="M24" s="7">
         <v>58</v>
@@ -3773,13 +3755,13 @@
         <v>59665</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,13 +3776,13 @@
         <v>28333</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -3809,13 +3791,13 @@
         <v>20500</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -3824,13 +3806,13 @@
         <v>48833</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3845,13 +3827,13 @@
         <v>130557</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
@@ -3860,13 +3842,13 @@
         <v>79181</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M26" s="7">
         <v>194</v>
@@ -3875,13 +3857,13 @@
         <v>209738</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3937,7 +3919,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3949,13 +3931,13 @@
         <v>17159</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -3964,13 +3946,13 @@
         <v>17476</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -3979,13 +3961,13 @@
         <v>34635</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4000,13 +3982,13 @@
         <v>8222</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -4015,13 +3997,13 @@
         <v>10360</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -4030,13 +4012,13 @@
         <v>18582</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4051,13 +4033,13 @@
         <v>21570</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -4066,13 +4048,13 @@
         <v>7905</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -4081,13 +4063,13 @@
         <v>29474</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4102,13 +4084,13 @@
         <v>7018</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>184</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -4117,13 +4099,13 @@
         <v>4154</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -4132,13 +4114,13 @@
         <v>11172</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4153,13 +4135,13 @@
         <v>28345</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="H32" s="7">
         <v>16</v>
@@ -4168,13 +4150,13 @@
         <v>15739</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="M32" s="7">
         <v>41</v>
@@ -4183,13 +4165,13 @@
         <v>44084</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4245,7 +4227,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4257,13 +4239,13 @@
         <v>8089</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -4272,13 +4254,13 @@
         <v>6546</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>116</v>
+        <v>203</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -4287,13 +4269,13 @@
         <v>14635</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -4308,13 +4290,13 @@
         <v>6980</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G35" s="7" t="s">
         <v>209</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G35" s="7" t="s">
-        <v>211</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -4323,13 +4305,13 @@
         <v>2823</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L35" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>214</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -4338,13 +4320,13 @@
         <v>9803</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>217</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4359,13 +4341,13 @@
         <v>18243</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -4374,13 +4356,13 @@
         <v>7739</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M36" s="7">
         <v>23</v>
@@ -4389,13 +4371,13 @@
         <v>25983</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -4410,13 +4392,13 @@
         <v>19725</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -4425,13 +4407,13 @@
         <v>5738</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M37" s="7">
         <v>25</v>
@@ -4440,13 +4422,13 @@
         <v>25463</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>233</v>
+        <v>163</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4461,13 +4443,13 @@
         <v>65228</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H38" s="7">
         <v>30</v>
@@ -4476,13 +4458,13 @@
         <v>32446</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M38" s="7">
         <v>91</v>
@@ -4491,13 +4473,13 @@
         <v>97674</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4553,7 +4535,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4565,13 +4547,13 @@
         <v>20147</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="H40" s="7">
         <v>16</v>
@@ -4580,13 +4562,13 @@
         <v>17341</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="M40" s="7">
         <v>36</v>
@@ -4595,13 +4577,13 @@
         <v>37489</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>83</v>
+        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4616,13 +4598,13 @@
         <v>14462</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="H41" s="7">
         <v>9</v>
@@ -4631,13 +4613,13 @@
         <v>9719</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M41" s="7">
         <v>23</v>
@@ -4646,13 +4628,13 @@
         <v>24181</v>
       </c>
       <c r="O41" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P41" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P41" s="7" t="s">
-        <v>259</v>
-      </c>
       <c r="Q41" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4667,13 +4649,13 @@
         <v>69063</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="H42" s="7">
         <v>23</v>
@@ -4682,13 +4664,13 @@
         <v>25455</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>47</v>
+        <v>262</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="M42" s="7">
         <v>84</v>
@@ -4697,13 +4679,13 @@
         <v>94518</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4718,13 +4700,13 @@
         <v>59369</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>268</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H43" s="7">
         <v>33</v>
@@ -4733,13 +4715,13 @@
         <v>34391</v>
       </c>
       <c r="J43" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K43" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M43" s="7">
         <v>92</v>
@@ -4748,13 +4730,13 @@
         <v>93760</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4769,13 +4751,13 @@
         <v>108033</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>278</v>
+        <v>148</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="H44" s="7">
         <v>90</v>
@@ -4784,13 +4766,13 @@
         <v>95258</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="M44" s="7">
         <v>188</v>
@@ -4799,13 +4781,13 @@
         <v>203291</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4861,7 +4843,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4873,13 +4855,13 @@
         <v>27297</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>207</v>
+        <v>285</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>288</v>
+        <v>125</v>
       </c>
       <c r="H46" s="7">
         <v>24</v>
@@ -4888,13 +4870,13 @@
         <v>27234</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M46" s="7">
         <v>48</v>
@@ -4903,13 +4885,13 @@
         <v>54531</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4906,13 @@
         <v>13862</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>120</v>
+        <v>292</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H47" s="7">
         <v>13</v>
@@ -4939,13 +4921,13 @@
         <v>13783</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>254</v>
+        <v>295</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="M47" s="7">
         <v>26</v>
@@ -4954,13 +4936,13 @@
         <v>27645</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P47" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="P47" s="7" t="s">
+      <c r="Q47" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>300</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4975,13 +4957,13 @@
         <v>78179</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F48" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F48" s="7" t="s">
+      <c r="G48" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="H48" s="7">
         <v>40</v>
@@ -4990,13 +4972,13 @@
         <v>43153</v>
       </c>
       <c r="J48" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K48" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K48" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M48" s="7">
         <v>113</v>
@@ -5005,13 +4987,13 @@
         <v>121332</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P48" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q48" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P48" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5026,13 +5008,13 @@
         <v>107376</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G49" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F49" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H49" s="7">
         <v>82</v>
@@ -5041,13 +5023,13 @@
         <v>89987</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="K49" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="L49" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K49" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M49" s="7">
         <v>184</v>
@@ -5056,13 +5038,13 @@
         <v>197364</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>263</v>
+        <v>314</v>
       </c>
       <c r="P49" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q49" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5077,13 +5059,13 @@
         <v>135517</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H50" s="7">
         <v>75</v>
@@ -5092,10 +5074,10 @@
         <v>84353</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>320</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="K50" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="L50" s="7" t="s">
         <v>322</v>
@@ -5286,10 +5268,10 @@
         <v>344</v>
       </c>
       <c r="F54" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G54" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="G54" s="7" t="s">
-        <v>346</v>
       </c>
       <c r="H54" s="7">
         <v>130</v>
@@ -5298,13 +5280,13 @@
         <v>139432</v>
       </c>
       <c r="J54" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="K54" s="7" t="s">
         <v>347</v>
       </c>
-      <c r="K54" s="7" t="s">
+      <c r="L54" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="L54" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="M54" s="7">
         <v>377</v>
@@ -5313,13 +5295,13 @@
         <v>404913</v>
       </c>
       <c r="O54" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="P54" s="7" t="s">
         <v>350</v>
       </c>
-      <c r="P54" s="7" t="s">
-        <v>351</v>
-      </c>
       <c r="Q54" s="7" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5334,13 +5316,13 @@
         <v>262402</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>353</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>354</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>355</v>
       </c>
       <c r="H55" s="7">
         <v>169</v>
@@ -5349,13 +5331,13 @@
         <v>179957</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>356</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="M55" s="7">
         <v>424</v>
@@ -5367,10 +5349,10 @@
         <v>344</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5385,13 +5367,13 @@
         <v>645791</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H56" s="7">
         <v>389</v>
@@ -5400,13 +5382,13 @@
         <v>421957</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>364</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>366</v>
       </c>
       <c r="M56" s="7">
         <v>989</v>
@@ -5415,13 +5397,13 @@
         <v>1067748</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5477,7 +5459,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -5501,7 +5483,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94B42DAE-EC29-4C1D-8E16-4A5596FC5026}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B798FB-72B2-420B-9471-C4DBC54822B2}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5518,7 +5500,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5625,13 +5607,13 @@
         <v>41722</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>373</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -5640,13 +5622,13 @@
         <v>36231</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>93</v>
+        <v>302</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -5655,13 +5637,13 @@
         <v>77953</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5676,13 +5658,13 @@
         <v>6913</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>217</v>
+        <v>379</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5691,13 +5673,13 @@
         <v>6223</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>382</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>383</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>384</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -5706,13 +5688,13 @@
         <v>13136</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>385</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5727,13 +5709,13 @@
         <v>13941</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>389</v>
+        <v>124</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -5742,13 +5724,13 @@
         <v>11298</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -5757,13 +5739,13 @@
         <v>25239</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5778,13 +5760,13 @@
         <v>12746</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>36</v>
+        <v>393</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>246</v>
+        <v>394</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5793,13 +5775,13 @@
         <v>5559</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>399</v>
+        <v>378</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5814,7 +5796,7 @@
         <v>68</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5829,13 +5811,13 @@
         <v>60844</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -5844,13 +5826,13 @@
         <v>41664</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="M8" s="7">
         <v>95</v>
@@ -5859,13 +5841,13 @@
         <v>102507</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5933,13 +5915,13 @@
         <v>21074</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>412</v>
+        <v>284</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -5948,13 +5930,13 @@
         <v>25209</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -5963,13 +5945,13 @@
         <v>46283</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5984,13 +5966,13 @@
         <v>26254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -5999,13 +5981,13 @@
         <v>15264</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -6014,13 +5996,13 @@
         <v>41519</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>117</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6035,13 +6017,13 @@
         <v>41672</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -6050,13 +6032,13 @@
         <v>17237</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>20</v>
+        <v>429</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="M12" s="7">
         <v>57</v>
@@ -6065,13 +6047,13 @@
         <v>58909</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>133</v>
+        <v>431</v>
       </c>
       <c r="P12" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>433</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6086,13 +6068,13 @@
         <v>26475</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>180</v>
+        <v>434</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>435</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>230</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -6101,13 +6083,13 @@
         <v>10610</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>437</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>438</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>439</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -6116,13 +6098,13 @@
         <v>37085</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>440</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>441</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6137,13 +6119,13 @@
         <v>54822</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>442</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>443</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>444</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>445</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -6152,13 +6134,13 @@
         <v>45359</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>446</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>447</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>448</v>
       </c>
       <c r="M14" s="7">
         <v>94</v>
@@ -6167,13 +6149,13 @@
         <v>100181</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>448</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>449</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>450</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6241,13 +6223,13 @@
         <v>28919</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>451</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>452</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>453</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>454</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -6256,10 +6238,10 @@
         <v>21688</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>454</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>455</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>349</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>456</v>
@@ -6274,10 +6256,10 @@
         <v>457</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>458</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6292,13 +6274,13 @@
         <v>14991</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>459</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>460</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>461</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>462</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -6307,13 +6289,13 @@
         <v>7666</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>462</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>463</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>464</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>465</v>
+        <v>357</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -6322,13 +6304,13 @@
         <v>22657</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>466</v>
+        <v>83</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6343,13 +6325,13 @@
         <v>37427</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>469</v>
+        <v>449</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -6358,13 +6340,13 @@
         <v>23078</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
@@ -6373,13 +6355,13 @@
         <v>60506</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6394,13 +6376,13 @@
         <v>28306</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>480</v>
+        <v>114</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -6409,13 +6391,13 @@
         <v>18862</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -6424,13 +6406,13 @@
         <v>47168</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6445,13 +6427,13 @@
         <v>16742</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -6460,13 +6442,13 @@
         <v>13038</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>492</v>
+        <v>425</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -6475,13 +6457,13 @@
         <v>29780</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>143</v>
+        <v>488</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6537,7 +6519,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6549,13 +6531,13 @@
         <v>35145</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -6564,13 +6546,13 @@
         <v>26602</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -6579,13 +6561,13 @@
         <v>61747</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6600,13 +6582,13 @@
         <v>3936</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>504</v>
+        <v>256</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6615,13 +6597,13 @@
         <v>4629</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>508</v>
+        <v>382</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -6630,13 +6612,13 @@
         <v>8565</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6651,13 +6633,13 @@
         <v>14080</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>157</v>
+        <v>505</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -6666,13 +6648,13 @@
         <v>7607</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>71</v>
+        <v>509</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>515</v>
+        <v>510</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -6681,13 +6663,13 @@
         <v>21688</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>516</v>
+        <v>511</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>517</v>
+        <v>139</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6702,13 +6684,13 @@
         <v>6483</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>520</v>
+        <v>378</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6717,13 +6699,13 @@
         <v>9419</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>522</v>
+        <v>78</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>523</v>
+        <v>515</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -6732,13 +6714,13 @@
         <v>15902</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>506</v>
+        <v>517</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6753,13 +6735,13 @@
         <v>52536</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -6768,13 +6750,13 @@
         <v>33602</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="M26" s="7">
         <v>82</v>
@@ -6783,13 +6765,13 @@
         <v>86138</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6845,7 +6827,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6857,13 +6839,13 @@
         <v>1904</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6872,13 +6854,13 @@
         <v>2501</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>208</v>
+        <v>532</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -6887,13 +6869,13 @@
         <v>4405</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6908,13 +6890,13 @@
         <v>12689</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -6923,13 +6905,13 @@
         <v>7131</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -6938,13 +6920,13 @@
         <v>19819</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>549</v>
+        <v>221</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>37</v>
+        <v>543</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6959,13 +6941,13 @@
         <v>25028</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>406</v>
+        <v>544</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>550</v>
+        <v>545</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>551</v>
+        <v>546</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -6974,13 +6956,13 @@
         <v>16834</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>552</v>
+        <v>547</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>553</v>
+        <v>548</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>554</v>
+        <v>549</v>
       </c>
       <c r="M30" s="7">
         <v>43</v>
@@ -6989,13 +6971,13 @@
         <v>41861</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>555</v>
+        <v>550</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>556</v>
+        <v>551</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>557</v>
+        <v>552</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7010,13 +6992,13 @@
         <v>33333</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>558</v>
+        <v>553</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>559</v>
+        <v>554</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>560</v>
+        <v>555</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -7025,13 +7007,13 @@
         <v>23507</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>561</v>
+        <v>556</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>562</v>
+        <v>557</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="M31" s="7">
         <v>59</v>
@@ -7040,13 +7022,13 @@
         <v>56840</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>564</v>
+        <v>559</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>565</v>
+        <v>560</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>566</v>
+        <v>561</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7061,13 +7043,13 @@
         <v>7978</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>567</v>
+        <v>562</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>568</v>
+        <v>563</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>569</v>
+        <v>564</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -7076,13 +7058,13 @@
         <v>5445</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>340</v>
+        <v>565</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>570</v>
+        <v>566</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>571</v>
+        <v>567</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -7094,10 +7076,10 @@
         <v>67</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>572</v>
+        <v>568</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>573</v>
+        <v>569</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7153,7 +7135,7 @@
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7165,13 +7147,13 @@
         <v>1634</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>574</v>
+        <v>570</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>575</v>
+        <v>183</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -7180,13 +7162,13 @@
         <v>4305</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>576</v>
+        <v>571</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>577</v>
+        <v>572</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>578</v>
+        <v>573</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -7195,13 +7177,13 @@
         <v>5939</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>579</v>
+        <v>574</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>580</v>
+        <v>575</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>581</v>
+        <v>576</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7216,13 +7198,13 @@
         <v>19236</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>582</v>
+        <v>577</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>583</v>
+        <v>89</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="H35" s="7">
         <v>21</v>
@@ -7231,13 +7213,13 @@
         <v>19724</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="M35" s="7">
         <v>40</v>
@@ -7246,13 +7228,13 @@
         <v>38960</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>589</v>
+        <v>438</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7267,13 +7249,13 @@
         <v>46792</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>191</v>
+        <v>585</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="H36" s="7">
         <v>26</v>
@@ -7282,13 +7264,13 @@
         <v>25339</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>367</v>
+        <v>589</v>
       </c>
       <c r="M36" s="7">
         <v>71</v>
@@ -7297,13 +7279,13 @@
         <v>72131</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>595</v>
+        <v>590</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>596</v>
+        <v>591</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>597</v>
+        <v>592</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -7318,13 +7300,13 @@
         <v>16922</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>598</v>
+        <v>593</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>599</v>
+        <v>440</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -7333,13 +7315,13 @@
         <v>18250</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="M37" s="7">
         <v>35</v>
@@ -7348,13 +7330,13 @@
         <v>35173</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>220</v>
+        <v>599</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>605</v>
+        <v>600</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7369,13 +7351,13 @@
         <v>22918</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>606</v>
+        <v>601</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="H38" s="7">
         <v>7</v>
@@ -7384,13 +7366,13 @@
         <v>7949</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>609</v>
+        <v>604</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>610</v>
+        <v>605</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>611</v>
+        <v>606</v>
       </c>
       <c r="M38" s="7">
         <v>29</v>
@@ -7399,13 +7381,13 @@
         <v>30868</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>612</v>
+        <v>607</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>247</v>
+        <v>608</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>613</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7461,7 +7443,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7473,13 +7455,13 @@
         <v>71916</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>513</v>
+        <v>609</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>479</v>
+        <v>610</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="H40" s="7">
         <v>67</v>
@@ -7488,13 +7470,13 @@
         <v>70190</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>616</v>
+        <v>484</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>617</v>
+        <v>613</v>
       </c>
       <c r="M40" s="7">
         <v>131</v>
@@ -7503,13 +7485,13 @@
         <v>142106</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>618</v>
+        <v>614</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>160</v>
+        <v>615</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -7524,13 +7506,13 @@
         <v>78448</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="H41" s="7">
         <v>63</v>
@@ -7539,13 +7521,13 @@
         <v>63887</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>590</v>
+        <v>622</v>
       </c>
       <c r="M41" s="7">
         <v>133</v>
@@ -7554,13 +7536,13 @@
         <v>142335</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>626</v>
+        <v>116</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7575,13 +7557,13 @@
         <v>79970</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="H42" s="7">
         <v>70</v>
@@ -7590,13 +7572,13 @@
         <v>73788</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="M42" s="7">
         <v>140</v>
@@ -7605,13 +7587,13 @@
         <v>153759</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -7626,13 +7608,13 @@
         <v>47578</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>638</v>
+        <v>327</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>639</v>
+        <v>161</v>
       </c>
       <c r="H43" s="7">
         <v>31</v>
@@ -7641,13 +7623,13 @@
         <v>31481</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>66</v>
+        <v>635</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>338</v>
+        <v>636</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>22</v>
+        <v>637</v>
       </c>
       <c r="M43" s="7">
         <v>69</v>
@@ -7656,13 +7638,13 @@
         <v>79059</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="P43" s="7" t="s">
+        <v>639</v>
+      </c>
+      <c r="Q43" s="7" t="s">
         <v>640</v>
-      </c>
-      <c r="P43" s="7" t="s">
-        <v>638</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7677,13 +7659,13 @@
         <v>82014</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>641</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>642</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>643</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>644</v>
       </c>
       <c r="H44" s="7">
         <v>43</v>
@@ -7692,13 +7674,13 @@
         <v>45520</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>645</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>646</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>647</v>
       </c>
       <c r="M44" s="7">
         <v>114</v>
@@ -7707,13 +7689,13 @@
         <v>127534</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>647</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>648</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>649</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7769,7 +7751,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7781,13 +7763,13 @@
         <v>6665</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>651</v>
+        <v>503</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>653</v>
+        <v>437</v>
       </c>
       <c r="H46" s="7">
         <v>7</v>
@@ -7796,13 +7778,13 @@
         <v>7675</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>654</v>
+        <v>650</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>655</v>
+        <v>651</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>656</v>
+        <v>652</v>
       </c>
       <c r="M46" s="7">
         <v>13</v>
@@ -7811,13 +7793,13 @@
         <v>14340</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>657</v>
+        <v>653</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>659</v>
+        <v>655</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7832,13 +7814,13 @@
         <v>19928</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>660</v>
+        <v>656</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>27</v>
+        <v>657</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>661</v>
+        <v>508</v>
       </c>
       <c r="H47" s="7">
         <v>18</v>
@@ -7847,13 +7829,13 @@
         <v>18898</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>662</v>
+        <v>658</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>525</v>
+        <v>659</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>305</v>
+        <v>330</v>
       </c>
       <c r="M47" s="7">
         <v>37</v>
@@ -7862,13 +7844,13 @@
         <v>38826</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>664</v>
+        <v>336</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7883,13 +7865,13 @@
         <v>63916</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>666</v>
+        <v>662</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>667</v>
+        <v>663</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>668</v>
+        <v>664</v>
       </c>
       <c r="H48" s="7">
         <v>59</v>
@@ -7898,13 +7880,13 @@
         <v>61281</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>669</v>
+        <v>665</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>670</v>
+        <v>157</v>
       </c>
       <c r="M48" s="7">
         <v>121</v>
@@ -7913,13 +7895,13 @@
         <v>125197</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>671</v>
+        <v>666</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>672</v>
+        <v>667</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>673</v>
+        <v>668</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -7934,13 +7916,13 @@
         <v>148887</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>674</v>
+        <v>669</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>676</v>
+        <v>671</v>
       </c>
       <c r="H49" s="7">
         <v>86</v>
@@ -7949,13 +7931,13 @@
         <v>89794</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>677</v>
+        <v>470</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="M49" s="7">
         <v>228</v>
@@ -7964,13 +7946,13 @@
         <v>238681</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -7985,13 +7967,13 @@
         <v>89541</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="H50" s="7">
         <v>61</v>
@@ -8000,13 +7982,13 @@
         <v>62823</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="M50" s="7">
         <v>147</v>
@@ -8015,13 +7997,13 @@
         <v>152364</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>158</v>
+        <v>685</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,13 +8071,13 @@
         <v>208978</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>250</v>
+        <v>686</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>94</v>
+        <v>432</v>
       </c>
       <c r="H52" s="7">
         <v>187</v>
@@ -8104,13 +8086,13 @@
         <v>194402</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>693</v>
+        <v>306</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>694</v>
+        <v>689</v>
       </c>
       <c r="M52" s="7">
         <v>377</v>
@@ -8119,13 +8101,13 @@
         <v>403380</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>695</v>
+        <v>690</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>696</v>
+        <v>220</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -8140,13 +8122,13 @@
         <v>182394</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>83</v>
+        <v>326</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
       <c r="H53" s="7">
         <v>142</v>
@@ -8155,13 +8137,13 @@
         <v>143422</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>700</v>
+        <v>206</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>646</v>
+        <v>694</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>397</v>
+        <v>695</v>
       </c>
       <c r="M53" s="7">
         <v>310</v>
@@ -8170,13 +8152,13 @@
         <v>325816</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>701</v>
+        <v>696</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>702</v>
+        <v>697</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8191,13 +8173,13 @@
         <v>322826</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>499</v>
+        <v>698</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="H54" s="7">
         <v>234</v>
@@ -8206,13 +8188,13 @@
         <v>236464</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>273</v>
+        <v>703</v>
       </c>
       <c r="M54" s="7">
         <v>540</v>
@@ -8221,13 +8203,13 @@
         <v>559290</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>708</v>
+        <v>516</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8242,13 +8224,13 @@
         <v>320729</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="H55" s="7">
         <v>205</v>
@@ -8257,13 +8239,13 @@
         <v>207484</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>714</v>
+        <v>430</v>
       </c>
       <c r="M55" s="7">
         <v>504</v>
@@ -8272,13 +8254,13 @@
         <v>528213</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>715</v>
+        <v>230</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>716</v>
+        <v>711</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>717</v>
+        <v>551</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8293,13 +8275,13 @@
         <v>387395</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="H56" s="7">
         <v>245</v>
@@ -8308,13 +8290,13 @@
         <v>255401</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="M56" s="7">
         <v>605</v>
@@ -8323,13 +8305,13 @@
         <v>642796</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8385,7 +8367,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6711-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8B2486E-C43A-4D25-BB1D-3D3E0871D793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18BAAA5B-9CCC-4F71-BC32-DA7329613EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9F19F484-78C0-4B77-BE91-5B2C21135A05}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F5DCF0B-D586-44F6-BD83-10ED5A558000}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="721">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="720">
   <si>
     <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -93,2113 +93,2110 @@
     <t>9,11%</t>
   </si>
   <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
   </si>
   <si>
     <t>9,05%</t>
   </si>
   <si>
-    <t>4,27%</t>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>9,08%</t>
+  </si>
+  <si>
+    <t>5,99%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>4,28%</t>
+  </si>
+  <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>12,73%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
+  </si>
+  <si>
+    <t>21,84%</t>
+  </si>
+  <si>
+    <t>10,19%</t>
+  </si>
+  <si>
+    <t>5,12%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>12,69%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>17,14%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>62,12%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>48,57%</t>
+  </si>
+  <si>
+    <t>67,92%</t>
+  </si>
+  <si>
+    <t>60,74%</t>
+  </si>
+  <si>
+    <t>55,2%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Cordoba</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>18,46%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>13,22%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>16,16%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>11,59%</t>
+  </si>
+  <si>
+    <t>21,77%</t>
+  </si>
+  <si>
+    <t>20,16%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>27,34%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>25,4%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>14,21%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>49,66%</t>
+  </si>
+  <si>
+    <t>41,94%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
+  </si>
+  <si>
+    <t>41,58%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>57,14%</t>
+  </si>
+  <si>
+    <t>Granada</t>
+  </si>
+  <si>
+    <t>23,06%</t>
+  </si>
+  <si>
+    <t>17,43%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>22,82%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>19,36%</t>
+  </si>
+  <si>
+    <t>27,61%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>10,42%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>15,82%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>21,23%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>42,59%</t>
+  </si>
+  <si>
+    <t>55,19%</t>
+  </si>
+  <si>
+    <t>41,74%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>45,76%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
   </si>
   <si>
     <t>15,6%</t>
   </si>
   <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>12,73%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>20,98%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>13,78%</t>
-  </si>
-  <si>
-    <t>14,45%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>20,82%</t>
-  </si>
-  <si>
-    <t>10,19%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>27,53%</t>
+  </si>
+  <si>
+    <t>43,53%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>53,84%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>44,81%</t>
+  </si>
+  <si>
+    <t>39,4%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>23,8%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>13,88%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>21,32%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>30,17%</t>
+  </si>
+  <si>
+    <t>10,52%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>25,08%</t>
+  </si>
+  <si>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>30,77%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>21,8%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>17,84%</t>
+  </si>
+  <si>
+    <t>27,68%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>25,81%</t>
+  </si>
+  <si>
+    <t>22,22%</t>
+  </si>
+  <si>
+    <t>18,23%</t>
+  </si>
+  <si>
+    <t>27,47%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>31,43%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>20,35%</t>
+  </si>
+  <si>
+    <t>27,32%</t>
   </si>
   <si>
     <t>18,0%</t>
   </si>
   <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>7,81%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>11,17%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>49,74%</t>
-  </si>
-  <si>
-    <t>69,06%</t>
-  </si>
-  <si>
-    <t>60,74%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>66,69%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Cordoba</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>23,05%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>16,25%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>20,16%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>10,5%</t>
-  </si>
-  <si>
-    <t>25,44%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>24,7%</t>
-  </si>
-  <si>
-    <t>49,66%</t>
-  </si>
-  <si>
-    <t>42,07%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>52,78%</t>
-  </si>
-  <si>
-    <t>40,31%</t>
-  </si>
-  <si>
-    <t>62,5%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>43,73%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>Granada</t>
-  </si>
-  <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>17,97%</t>
-  </si>
-  <si>
-    <t>28,7%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>30,2%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>18,96%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>14,7%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>21,84%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>14,24%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>13,88%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>42,79%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>33,89%</t>
-  </si>
-  <si>
-    <t>49,78%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>46,02%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>33,02%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>12,26%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,19%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,39%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>12,16%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>19,43%</t>
+  </si>
+  <si>
+    <t>15,03%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>31,49%</t>
+  </si>
+  <si>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>37,34%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>41,92%</t>
+  </si>
+  <si>
+    <t>37,68%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>26,12%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>32,21%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>23,18%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>12,83%</t>
+  </si>
+  <si>
+    <t>16,57%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>21,25%</t>
+  </si>
+  <si>
+    <t>17,98%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>11,9%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>14,66%</t>
+  </si>
+  <si>
+    <t>22,7%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>22,8%</t>
+  </si>
+  <si>
+    <t>25,67%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>21,05%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>20,28%</t>
+  </si>
+  <si>
+    <t>24,92%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>21,48%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>25,0%</t>
   </si>
   <si>
     <t>29,93%</t>
   </si>
   <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,5%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>17,44%</t>
-  </si>
-  <si>
-    <t>36,48%</t>
-  </si>
-  <si>
-    <t>14,21%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>25,06%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>28,77%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>18,83%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>14,72%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>45,31%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>17,8%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>41,73%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>16,43%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>25,54%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>21,48%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>44,67%</t>
-  </si>
-  <si>
-    <t>63,76%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>49,09%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,98%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>20,08%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,94%</t>
-  </si>
-  <si>
-    <t>25,32%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,06%</t>
-  </si>
-  <si>
-    <t>24,4%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>46,01%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>44,89%</t>
-  </si>
-  <si>
-    <t>59,89%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>49,84%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,14%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>21,66%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,5%</t>
-  </si>
-  <si>
-    <t>23,16%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>24,86%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>41,8%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>28,17%</t>
-  </si>
-  <si>
-    <t>35,89%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>32,04%</t>
-  </si>
-  <si>
-    <t>42,8%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>26,65%</t>
-  </si>
-  <si>
-    <t>38,88%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>39,41%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>13,11%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>9,55%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>7,87%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,41%</t>
-  </si>
-  <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>42,99%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,32%</t>
-  </si>
-  <si>
-    <t>48,25%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>47,22%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>39,51%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>47,02%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>39,54%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>14,29%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>16,64%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>19,03%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>15,8%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,68%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>11,41%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>35,6%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>30,36%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>37,07%</t>
-  </si>
-  <si>
-    <t>50,46%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>19,13%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>31,1%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>21,55%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>21,0%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>19,81%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>17,94%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>15,96%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>40,01%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>31,09%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>16,23%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>36,52%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>30,33%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,36%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>16,19%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>37,34%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>22,28%</t>
-  </si>
-  <si>
-    <t>34,52%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>16,07%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>32,62%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>28,78%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>8,68%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>41,76%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>25,5%</t>
-  </si>
-  <si>
-    <t>39,34%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>15,9%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>20,96%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>36,36%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>30,73%</t>
-  </si>
-  <si>
-    <t>52,34%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>22,87%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>21,24%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>20,24%</t>
-  </si>
-  <si>
-    <t>43,76%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>30,29%</t>
-  </si>
-  <si>
-    <t>53,16%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>34,04%</t>
-  </si>
-  <si>
-    <t>51,11%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>17,93%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>26,55%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>27,3%</t>
-  </si>
-  <si>
-    <t>43,53%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>33,53%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>39,4%</t>
-  </si>
-  <si>
-    <t>32,03%</t>
-  </si>
-  <si>
-    <t>46,49%</t>
-  </si>
-  <si>
-    <t>15,74%</t>
-  </si>
-  <si>
-    <t>24,16%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>35,59%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>25,64%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>29,75%</t>
-  </si>
-  <si>
-    <t>10,52%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>11,8%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>24,41%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>18,73%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>21,8%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>26,57%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>27,49%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>25,46%</t>
-  </si>
-  <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>18,16%</t>
-  </si>
-  <si>
-    <t>26,96%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>30,89%</t>
-  </si>
-  <si>
-    <t>23,85%</t>
-  </si>
-  <si>
-    <t>20,35%</t>
-  </si>
-  <si>
-    <t>27,36%</t>
-  </si>
-  <si>
-    <t>13,22%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>15,25%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>22,79%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>28,1%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>11,7%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>23,29%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>1,27%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>19,43%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>18,8%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
-  </si>
-  <si>
-    <t>31,21%</t>
-  </si>
-  <si>
-    <t>44,1%</t>
-  </si>
-  <si>
-    <t>41,92%</t>
-  </si>
-  <si>
-    <t>37,66%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>27,22%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>26,12%</t>
-  </si>
-  <si>
-    <t>20,9%</t>
-  </si>
-  <si>
-    <t>32,88%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>23,12%</t>
-  </si>
-  <si>
-    <t>30,79%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>18,09%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>16,06%</t>
-  </si>
-  <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>14,6%</t>
-  </si>
-  <si>
-    <t>22,7%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>22,8%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>24,99%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>19,95%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>24,3%</t>
-  </si>
-  <si>
-    <t>28,06%</t>
+    <t>27,42%</t>
+  </si>
+  <si>
+    <t>24,32%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
   </si>
 </sst>
 </file>
@@ -2611,7 +2608,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E1D06D-A172-4F00-902A-962BBAB4E037}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980261B3-1B71-4069-BE80-DD48B601C10E}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3483,13 +3480,13 @@
         <v>13959</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -3498,13 +3495,13 @@
         <v>42830</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3519,13 +3516,13 @@
         <v>71119</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -3534,13 +3531,13 @@
         <v>43475</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -3549,13 +3546,13 @@
         <v>114594</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3611,7 +3608,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3623,13 +3620,13 @@
         <v>61960</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H22" s="7">
         <v>40</v>
@@ -3638,13 +3635,13 @@
         <v>43289</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M22" s="7">
         <v>96</v>
@@ -3653,13 +3650,13 @@
         <v>105249</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3674,13 +3671,13 @@
         <v>17384</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>118</v>
+        <v>33</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="H23" s="7">
         <v>15</v>
@@ -3689,7 +3686,7 @@
         <v>17478</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>120</v>
+        <v>42</v>
       </c>
       <c r="K23" s="7" t="s">
         <v>121</v>
@@ -3728,10 +3725,10 @@
         <v>126</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H24" s="7">
         <v>28</v>
@@ -3740,13 +3737,13 @@
         <v>29263</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M24" s="7">
         <v>58</v>
@@ -3755,13 +3752,13 @@
         <v>59665</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3776,13 +3773,13 @@
         <v>28333</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -3791,13 +3788,13 @@
         <v>20500</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M25" s="7">
         <v>47</v>
@@ -3806,13 +3803,13 @@
         <v>48833</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,13 +3824,13 @@
         <v>130557</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="H26" s="7">
         <v>72</v>
@@ -3842,13 +3839,13 @@
         <v>79181</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="M26" s="7">
         <v>194</v>
@@ -3857,13 +3854,13 @@
         <v>209738</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,7 +3916,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3931,13 +3928,13 @@
         <v>17159</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>156</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -3946,13 +3943,13 @@
         <v>17476</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -3961,13 +3958,13 @@
         <v>34635</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3982,13 +3979,13 @@
         <v>8222</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>165</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -4048,13 +4045,13 @@
         <v>7905</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -4063,13 +4060,13 @@
         <v>29474</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>177</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,13 +4081,13 @@
         <v>7018</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="G31" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -4099,13 +4096,13 @@
         <v>4154</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="L31" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -4114,13 +4111,13 @@
         <v>11172</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P31" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="P31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,10 +4132,10 @@
         <v>28345</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>190</v>
@@ -4305,13 +4302,13 @@
         <v>2823</v>
       </c>
       <c r="J35" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K35" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K35" s="7" t="s">
+      <c r="L35" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -4320,13 +4317,13 @@
         <v>9803</v>
       </c>
       <c r="O35" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P35" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,7 +4338,7 @@
         <v>18243</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F36" s="7" t="s">
         <v>215</v>
@@ -4395,10 +4392,10 @@
         <v>223</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -4407,13 +4404,13 @@
         <v>5738</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K37" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K37" s="7" t="s">
+      <c r="L37" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M37" s="7">
         <v>25</v>
@@ -4422,13 +4419,13 @@
         <v>25463</v>
       </c>
       <c r="O37" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P37" s="7" t="s">
-        <v>163</v>
-      </c>
       <c r="Q37" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4440,13 @@
         <v>65228</v>
       </c>
       <c r="E38" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="F38" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="F38" s="7" t="s">
+      <c r="G38" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>233</v>
       </c>
       <c r="H38" s="7">
         <v>30</v>
@@ -4458,13 +4455,13 @@
         <v>32446</v>
       </c>
       <c r="J38" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="K38" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="K38" s="7" t="s">
+      <c r="L38" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="M38" s="7">
         <v>91</v>
@@ -4473,13 +4470,13 @@
         <v>97674</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,7 +4532,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4547,13 +4544,13 @@
         <v>20147</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="F40" s="7" t="s">
+      <c r="G40" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="H40" s="7">
         <v>16</v>
@@ -4562,13 +4559,13 @@
         <v>17341</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="K40" s="7" t="s">
-        <v>245</v>
-      </c>
       <c r="L40" s="7" t="s">
-        <v>246</v>
+        <v>136</v>
       </c>
       <c r="M40" s="7">
         <v>36</v>
@@ -4577,13 +4574,13 @@
         <v>37489</v>
       </c>
       <c r="O40" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P40" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q40" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P40" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q40" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4595,13 @@
         <v>14462</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>248</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="G41" s="7" t="s">
         <v>250</v>
-      </c>
-      <c r="F41" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>252</v>
       </c>
       <c r="H41" s="7">
         <v>9</v>
@@ -4613,13 +4610,13 @@
         <v>9719</v>
       </c>
       <c r="J41" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="K41" s="7" t="s">
+        <v>252</v>
+      </c>
+      <c r="L41" s="7" t="s">
         <v>253</v>
-      </c>
-      <c r="K41" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="L41" s="7" t="s">
-        <v>255</v>
       </c>
       <c r="M41" s="7">
         <v>23</v>
@@ -4628,13 +4625,13 @@
         <v>24181</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4646,13 @@
         <v>69063</v>
       </c>
       <c r="E42" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G42" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F42" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G42" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H42" s="7">
         <v>23</v>
@@ -4664,13 +4661,13 @@
         <v>25455</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>261</v>
+        <v>34</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="M42" s="7">
         <v>84</v>
@@ -4679,13 +4676,13 @@
         <v>94518</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,13 +4697,13 @@
         <v>59369</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H43" s="7">
         <v>33</v>
@@ -4715,13 +4712,13 @@
         <v>34391</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="M43" s="7">
         <v>92</v>
@@ -4730,13 +4727,13 @@
         <v>93760</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -4751,13 +4748,13 @@
         <v>108033</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>148</v>
+        <v>273</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H44" s="7">
         <v>90</v>
@@ -4766,13 +4763,13 @@
         <v>95258</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K44" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L44" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>279</v>
       </c>
       <c r="M44" s="7">
         <v>188</v>
@@ -4781,13 +4778,13 @@
         <v>203291</v>
       </c>
       <c r="O44" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P44" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q44" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="P44" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="Q44" s="7" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4843,7 +4840,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4855,13 +4852,13 @@
         <v>27297</v>
       </c>
       <c r="E46" s="7" t="s">
+        <v>282</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="G46" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G46" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H46" s="7">
         <v>24</v>
@@ -4870,13 +4867,13 @@
         <v>27234</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="K46" s="7" t="s">
+      <c r="L46" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="L46" s="7" t="s">
-        <v>288</v>
       </c>
       <c r="M46" s="7">
         <v>48</v>
@@ -4885,13 +4882,13 @@
         <v>54531</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P46" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="P46" s="7" t="s">
+      <c r="Q46" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -4906,13 +4903,13 @@
         <v>13862</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F47" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="F47" s="7" t="s">
+      <c r="G47" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="H47" s="7">
         <v>13</v>
@@ -4921,13 +4918,13 @@
         <v>13783</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K47" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="L47" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="M47" s="7">
         <v>26</v>
@@ -4936,13 +4933,13 @@
         <v>27645</v>
       </c>
       <c r="O47" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="P47" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="Q47" s="7" t="s">
         <v>297</v>
-      </c>
-      <c r="P47" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="Q47" s="7" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -4957,13 +4954,13 @@
         <v>78179</v>
       </c>
       <c r="E48" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="G48" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="G48" s="7" t="s">
-        <v>302</v>
       </c>
       <c r="H48" s="7">
         <v>40</v>
@@ -4972,13 +4969,13 @@
         <v>43153</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="K48" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="L48" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="L48" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="M48" s="7">
         <v>113</v>
@@ -4987,13 +4984,13 @@
         <v>121332</v>
       </c>
       <c r="O48" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="P48" s="7" t="s">
         <v>305</v>
       </c>
-      <c r="P48" s="7" t="s">
+      <c r="Q48" s="7" t="s">
         <v>306</v>
-      </c>
-      <c r="Q48" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
@@ -5008,13 +5005,13 @@
         <v>107376</v>
       </c>
       <c r="E49" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="F49" s="7" t="s">
         <v>308</v>
       </c>
-      <c r="F49" s="7" t="s">
+      <c r="G49" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>310</v>
       </c>
       <c r="H49" s="7">
         <v>82</v>
@@ -5023,13 +5020,13 @@
         <v>89987</v>
       </c>
       <c r="J49" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="K49" s="7" t="s">
         <v>311</v>
       </c>
-      <c r="K49" s="7" t="s">
+      <c r="L49" s="7" t="s">
         <v>312</v>
-      </c>
-      <c r="L49" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="M49" s="7">
         <v>184</v>
@@ -5038,13 +5035,13 @@
         <v>197364</v>
       </c>
       <c r="O49" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P49" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="P49" s="7" t="s">
+      <c r="Q49" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q49" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
@@ -5059,13 +5056,13 @@
         <v>135517</v>
       </c>
       <c r="E50" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F50" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F50" s="7" t="s">
+      <c r="G50" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="G50" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H50" s="7">
         <v>75</v>
@@ -5074,13 +5071,13 @@
         <v>84353</v>
       </c>
       <c r="J50" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="K50" s="7" t="s">
         <v>320</v>
       </c>
-      <c r="K50" s="7" t="s">
+      <c r="L50" s="7" t="s">
         <v>321</v>
-      </c>
-      <c r="L50" s="7" t="s">
-        <v>322</v>
       </c>
       <c r="M50" s="7">
         <v>200</v>
@@ -5089,13 +5086,13 @@
         <v>219870</v>
       </c>
       <c r="O50" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="P50" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="P50" s="7" t="s">
+      <c r="Q50" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="Q50" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5163,13 +5160,13 @@
         <v>159106</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>328</v>
       </c>
       <c r="H52" s="7">
         <v>120</v>
@@ -5178,13 +5175,13 @@
         <v>130995</v>
       </c>
       <c r="J52" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="K52" s="7" t="s">
         <v>329</v>
       </c>
-      <c r="K52" s="7" t="s">
-        <v>330</v>
-      </c>
       <c r="L52" s="7" t="s">
-        <v>331</v>
+        <v>133</v>
       </c>
       <c r="M52" s="7">
         <v>268</v>
@@ -5193,13 +5190,13 @@
         <v>290101</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>333</v>
+        <v>247</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
@@ -5214,13 +5211,13 @@
         <v>85180</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="H53" s="7">
         <v>65</v>
@@ -5229,13 +5226,13 @@
         <v>72949</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="M53" s="7">
         <v>146</v>
@@ -5244,13 +5241,13 @@
         <v>158129</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -5265,13 +5262,13 @@
         <v>265481</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>223</v>
+        <v>342</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H54" s="7">
         <v>130</v>
@@ -5280,13 +5277,13 @@
         <v>139432</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>347</v>
+        <v>200</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="M54" s="7">
         <v>377</v>
@@ -5295,13 +5292,13 @@
         <v>404913</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -5316,13 +5313,13 @@
         <v>262402</v>
       </c>
       <c r="E55" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G55" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F55" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G55" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H55" s="7">
         <v>169</v>
@@ -5331,13 +5328,13 @@
         <v>179957</v>
       </c>
       <c r="J55" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K55" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L55" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K55" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L55" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M55" s="7">
         <v>424</v>
@@ -5346,13 +5343,13 @@
         <v>442358</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -5367,13 +5364,13 @@
         <v>645791</v>
       </c>
       <c r="E56" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="G56" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="F56" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="G56" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="H56" s="7">
         <v>389</v>
@@ -5382,13 +5379,13 @@
         <v>421957</v>
       </c>
       <c r="J56" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="K56" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="L56" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="K56" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="L56" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M56" s="7">
         <v>989</v>
@@ -5397,13 +5394,13 @@
         <v>1067748</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="P56" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q56" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="P56" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,7 +5456,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -5483,7 +5480,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3B798FB-72B2-420B-9471-C4DBC54822B2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE274B2-1D3E-4E4B-94A1-24AEE97FAFA1}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5500,7 +5497,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5607,13 +5604,13 @@
         <v>41722</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -5622,13 +5619,13 @@
         <v>36231</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>374</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -5637,10 +5634,10 @@
         <v>77953</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>321</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>376</v>
@@ -5679,7 +5676,7 @@
         <v>381</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>382</v>
+        <v>98</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -5688,7 +5685,7 @@
         <v>13136</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>121</v>
+        <v>382</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>383</v>
@@ -5712,10 +5709,10 @@
         <v>385</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>124</v>
+        <v>386</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -5724,13 +5721,13 @@
         <v>11298</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -5739,13 +5736,13 @@
         <v>25239</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5760,13 +5757,13 @@
         <v>12746</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5775,13 +5772,13 @@
         <v>5559</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>378</v>
+        <v>398</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5790,13 +5787,13 @@
         <v>18306</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>68</v>
+        <v>400</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5811,13 +5808,13 @@
         <v>60844</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -5826,13 +5823,13 @@
         <v>41664</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="M8" s="7">
         <v>95</v>
@@ -5841,13 +5838,13 @@
         <v>102507</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5915,13 +5912,13 @@
         <v>21074</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>284</v>
+        <v>73</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -5930,13 +5927,13 @@
         <v>25209</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -5945,13 +5942,13 @@
         <v>46283</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5966,13 +5963,13 @@
         <v>26254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>416</v>
+        <v>287</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -5981,13 +5978,13 @@
         <v>15264</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -5996,13 +5993,13 @@
         <v>41519</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>423</v>
+        <v>285</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6017,13 +6014,13 @@
         <v>41672</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -6032,10 +6029,10 @@
         <v>17237</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>429</v>
+        <v>384</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>430</v>
@@ -6074,7 +6071,7 @@
         <v>435</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>230</v>
+        <v>436</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -6083,7 +6080,7 @@
         <v>10610</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>436</v>
+        <v>86</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>437</v>
@@ -6101,10 +6098,10 @@
         <v>439</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>440</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6119,13 +6116,13 @@
         <v>54822</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>442</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>443</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>444</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -6134,13 +6131,13 @@
         <v>45359</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>444</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>445</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>446</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>447</v>
       </c>
       <c r="M14" s="7">
         <v>94</v>
@@ -6149,13 +6146,13 @@
         <v>100181</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>447</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>448</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>449</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>450</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6223,13 +6220,13 @@
         <v>28919</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>450</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>451</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>452</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>453</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -6238,13 +6235,13 @@
         <v>21688</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>453</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>455</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>456</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -6253,13 +6250,13 @@
         <v>50607</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>456</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>458</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6274,13 +6271,13 @@
         <v>14991</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -6289,13 +6286,13 @@
         <v>7666</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>462</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>463</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>357</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -6304,7 +6301,7 @@
         <v>22657</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>83</v>
+        <v>419</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>464</v>
@@ -6325,13 +6322,13 @@
         <v>37427</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>449</v>
+        <v>466</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -6340,10 +6337,10 @@
         <v>23078</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>469</v>
+        <v>348</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>470</v>
@@ -6382,7 +6379,7 @@
         <v>475</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>114</v>
+        <v>476</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -6391,13 +6388,13 @@
         <v>18862</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -6406,7 +6403,7 @@
         <v>47168</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>479</v>
+        <v>430</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>480</v>
@@ -6448,7 +6445,7 @@
         <v>486</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>425</v>
+        <v>175</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -6519,7 +6516,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6582,13 +6579,13 @@
         <v>3936</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>256</v>
+        <v>499</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6597,13 +6594,13 @@
         <v>4629</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>382</v>
+        <v>503</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -6612,13 +6609,13 @@
         <v>8565</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -6633,13 +6630,13 @@
         <v>14080</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -6648,13 +6645,13 @@
         <v>7607</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -6663,13 +6660,13 @@
         <v>21688</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>139</v>
+        <v>514</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6684,13 +6681,13 @@
         <v>6483</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>513</v>
+        <v>339</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>378</v>
+        <v>516</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6699,13 +6696,13 @@
         <v>9419</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>78</v>
+        <v>518</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>515</v>
+        <v>386</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -6714,13 +6711,13 @@
         <v>15902</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6735,13 +6732,13 @@
         <v>52536</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -6750,13 +6747,13 @@
         <v>33602</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="M26" s="7">
         <v>82</v>
@@ -6765,13 +6762,13 @@
         <v>86138</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6827,7 +6824,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6839,13 +6836,13 @@
         <v>1904</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6854,13 +6851,13 @@
         <v>2501</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -6869,13 +6866,13 @@
         <v>4405</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6890,13 +6887,13 @@
         <v>12689</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -6905,13 +6902,13 @@
         <v>7131</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -6920,13 +6917,13 @@
         <v>19819</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>221</v>
+        <v>546</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6941,13 +6938,13 @@
         <v>25028</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>544</v>
+        <v>445</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -6956,13 +6953,13 @@
         <v>16834</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="M30" s="7">
         <v>43</v>
@@ -6971,13 +6968,13 @@
         <v>41861</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6992,13 +6989,13 @@
         <v>33333</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -7007,13 +7004,13 @@
         <v>23507</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="M31" s="7">
         <v>59</v>
@@ -7022,13 +7019,13 @@
         <v>56840</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -7043,13 +7040,13 @@
         <v>7978</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>562</v>
+        <v>565</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -7058,13 +7055,13 @@
         <v>5445</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>566</v>
+        <v>254</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>567</v>
+        <v>351</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -7076,10 +7073,10 @@
         <v>67</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7147,13 +7144,13 @@
         <v>1634</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>183</v>
+        <v>572</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -7162,13 +7159,13 @@
         <v>4305</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>571</v>
+        <v>174</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -7177,13 +7174,13 @@
         <v>5939</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>576</v>
+        <v>185</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -7201,10 +7198,10 @@
         <v>577</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>89</v>
+        <v>578</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="H35" s="7">
         <v>21</v>
@@ -7213,13 +7210,13 @@
         <v>19724</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="M35" s="7">
         <v>40</v>
@@ -7228,13 +7225,13 @@
         <v>38960</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>438</v>
+        <v>127</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -7249,13 +7246,13 @@
         <v>46792</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H36" s="7">
         <v>26</v>
@@ -7264,13 +7261,13 @@
         <v>25339</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="M36" s="7">
         <v>71</v>
@@ -7279,10 +7276,10 @@
         <v>72131</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>591</v>
+        <v>317</v>
       </c>
       <c r="Q36" s="7" t="s">
         <v>592</v>
@@ -7303,10 +7300,10 @@
         <v>593</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>440</v>
+        <v>594</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -7315,13 +7312,13 @@
         <v>18250</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="M37" s="7">
         <v>35</v>
@@ -7330,13 +7327,13 @@
         <v>35173</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -7351,13 +7348,13 @@
         <v>22918</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="H38" s="7">
         <v>7</v>
@@ -7366,10 +7363,10 @@
         <v>7949</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>605</v>
+        <v>76</v>
       </c>
       <c r="L38" s="7" t="s">
         <v>606</v>
@@ -7381,13 +7378,13 @@
         <v>30868</v>
       </c>
       <c r="O38" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="P38" s="7" t="s">
         <v>607</v>
       </c>
-      <c r="P38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>608</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7443,7 +7440,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7458,10 +7455,10 @@
         <v>609</v>
       </c>
       <c r="F40" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="G40" s="7" t="s">
         <v>610</v>
-      </c>
-      <c r="G40" s="7" t="s">
-        <v>611</v>
       </c>
       <c r="H40" s="7">
         <v>67</v>
@@ -7470,10 +7467,10 @@
         <v>70190</v>
       </c>
       <c r="J40" s="7" t="s">
+        <v>611</v>
+      </c>
+      <c r="K40" s="7" t="s">
         <v>612</v>
-      </c>
-      <c r="K40" s="7" t="s">
-        <v>484</v>
       </c>
       <c r="L40" s="7" t="s">
         <v>613</v>
@@ -7539,10 +7536,10 @@
         <v>623</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>116</v>
+        <v>624</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
@@ -7557,13 +7554,13 @@
         <v>79970</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H42" s="7">
         <v>70</v>
@@ -7572,10 +7569,10 @@
         <v>73788</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>629</v>
+        <v>356</v>
       </c>
       <c r="L42" s="7" t="s">
         <v>630</v>
@@ -7608,13 +7605,13 @@
         <v>47578</v>
       </c>
       <c r="E43" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>565</v>
+      </c>
+      <c r="G43" s="7" t="s">
         <v>634</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="G43" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H43" s="7">
         <v>31</v>
@@ -7626,10 +7623,10 @@
         <v>635</v>
       </c>
       <c r="K43" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="L43" s="7" t="s">
         <v>636</v>
-      </c>
-      <c r="L43" s="7" t="s">
-        <v>637</v>
       </c>
       <c r="M43" s="7">
         <v>69</v>
@@ -7638,13 +7635,13 @@
         <v>79059</v>
       </c>
       <c r="O43" s="7" t="s">
+        <v>637</v>
+      </c>
+      <c r="P43" s="7" t="s">
         <v>638</v>
       </c>
-      <c r="P43" s="7" t="s">
+      <c r="Q43" s="7" t="s">
         <v>639</v>
-      </c>
-      <c r="Q43" s="7" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
@@ -7659,13 +7656,13 @@
         <v>82014</v>
       </c>
       <c r="E44" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="F44" s="7" t="s">
         <v>641</v>
       </c>
-      <c r="F44" s="7" t="s">
+      <c r="G44" s="7" t="s">
         <v>642</v>
-      </c>
-      <c r="G44" s="7" t="s">
-        <v>643</v>
       </c>
       <c r="H44" s="7">
         <v>43</v>
@@ -7674,13 +7671,13 @@
         <v>45520</v>
       </c>
       <c r="J44" s="7" t="s">
+        <v>643</v>
+      </c>
+      <c r="K44" s="7" t="s">
         <v>644</v>
       </c>
-      <c r="K44" s="7" t="s">
+      <c r="L44" s="7" t="s">
         <v>645</v>
-      </c>
-      <c r="L44" s="7" t="s">
-        <v>646</v>
       </c>
       <c r="M44" s="7">
         <v>114</v>
@@ -7689,13 +7686,13 @@
         <v>127534</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>648</v>
+        <v>491</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7751,7 +7748,7 @@
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7763,13 +7760,13 @@
         <v>6665</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>503</v>
+        <v>381</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>437</v>
+        <v>648</v>
       </c>
       <c r="H46" s="7">
         <v>7</v>
@@ -7778,13 +7775,13 @@
         <v>7675</v>
       </c>
       <c r="J46" s="7" t="s">
+        <v>649</v>
+      </c>
+      <c r="K46" s="7" t="s">
         <v>650</v>
       </c>
-      <c r="K46" s="7" t="s">
-        <v>651</v>
-      </c>
       <c r="L46" s="7" t="s">
-        <v>652</v>
+        <v>297</v>
       </c>
       <c r="M46" s="7">
         <v>13</v>
@@ -7793,13 +7790,13 @@
         <v>14340</v>
       </c>
       <c r="O46" s="7" t="s">
+        <v>651</v>
+      </c>
+      <c r="P46" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="Q46" s="7" t="s">
         <v>653</v>
-      </c>
-      <c r="P46" s="7" t="s">
-        <v>654</v>
-      </c>
-      <c r="Q46" s="7" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
@@ -7814,13 +7811,13 @@
         <v>19928</v>
       </c>
       <c r="E47" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>655</v>
+      </c>
+      <c r="G47" s="7" t="s">
         <v>656</v>
-      </c>
-      <c r="F47" s="7" t="s">
-        <v>657</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>508</v>
       </c>
       <c r="H47" s="7">
         <v>18</v>
@@ -7829,13 +7826,13 @@
         <v>18898</v>
       </c>
       <c r="J47" s="7" t="s">
+        <v>657</v>
+      </c>
+      <c r="K47" s="7" t="s">
         <v>658</v>
       </c>
-      <c r="K47" s="7" t="s">
+      <c r="L47" s="7" t="s">
         <v>659</v>
-      </c>
-      <c r="L47" s="7" t="s">
-        <v>330</v>
       </c>
       <c r="M47" s="7">
         <v>37</v>
@@ -7847,10 +7844,10 @@
         <v>660</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>336</v>
+        <v>661</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
@@ -7865,13 +7862,13 @@
         <v>63916</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>664</v>
+        <v>596</v>
       </c>
       <c r="H48" s="7">
         <v>59</v>
@@ -7880,13 +7877,13 @@
         <v>61281</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K48" s="7" t="s">
         <v>665</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>157</v>
+        <v>666</v>
       </c>
       <c r="M48" s="7">
         <v>121</v>
@@ -7895,10 +7892,10 @@
         <v>125197</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>667</v>
+        <v>341</v>
       </c>
       <c r="Q48" s="7" t="s">
         <v>668</v>
@@ -7931,10 +7928,10 @@
         <v>89794</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>470</v>
+        <v>672</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>672</v>
+        <v>323</v>
       </c>
       <c r="L49" s="7" t="s">
         <v>673</v>
@@ -8071,13 +8068,13 @@
         <v>208978</v>
       </c>
       <c r="E52" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F52" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="F52" s="7" t="s">
+      <c r="G52" s="7" t="s">
         <v>687</v>
-      </c>
-      <c r="G52" s="7" t="s">
-        <v>432</v>
       </c>
       <c r="H52" s="7">
         <v>187</v>
@@ -8089,10 +8086,10 @@
         <v>688</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>306</v>
+        <v>689</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="M52" s="7">
         <v>377</v>
@@ -8101,10 +8098,10 @@
         <v>403380</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>690</v>
+        <v>570</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>220</v>
+        <v>177</v>
       </c>
       <c r="Q52" s="7" t="s">
         <v>691</v>
@@ -8125,10 +8122,10 @@
         <v>692</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>326</v>
+        <v>693</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="H53" s="7">
         <v>142</v>
@@ -8137,13 +8134,13 @@
         <v>143422</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>206</v>
+        <v>695</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="M53" s="7">
         <v>310</v>
@@ -8155,10 +8152,10 @@
         <v>482</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>696</v>
+        <v>607</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
@@ -8173,13 +8170,13 @@
         <v>322826</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="H54" s="7">
         <v>234</v>
@@ -8188,10 +8185,10 @@
         <v>236464</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>702</v>
+        <v>356</v>
       </c>
       <c r="L54" s="7" t="s">
         <v>703</v>
@@ -8206,10 +8203,10 @@
         <v>704</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>516</v>
+        <v>705</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
@@ -8224,7 +8221,7 @@
         <v>320729</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>706</v>
+        <v>678</v>
       </c>
       <c r="F55" s="7" t="s">
         <v>707</v>
@@ -8245,7 +8242,7 @@
         <v>710</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>430</v>
+        <v>711</v>
       </c>
       <c r="M55" s="7">
         <v>504</v>
@@ -8254,13 +8251,13 @@
         <v>528213</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>230</v>
+        <v>712</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>711</v>
+        <v>606</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>551</v>
+        <v>713</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
@@ -8275,13 +8272,13 @@
         <v>387395</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="H56" s="7">
         <v>245</v>
@@ -8290,10 +8287,10 @@
         <v>255401</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>715</v>
+        <v>271</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>716</v>
+        <v>547</v>
       </c>
       <c r="L56" s="7" t="s">
         <v>717</v>
@@ -8305,13 +8302,13 @@
         <v>642796</v>
       </c>
       <c r="O56" s="7" t="s">
+        <v>541</v>
+      </c>
+      <c r="P56" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="P56" s="7" t="s">
+      <c r="Q56" s="7" t="s">
         <v>719</v>
-      </c>
-      <c r="Q56" s="7" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8367,7 +8364,7 @@
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P6711-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P6711-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{18BAAA5B-9CCC-4F71-BC32-DA7329613EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BE7852E-60A6-454A-9596-4F6EDCC048C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{8F5DCF0B-D586-44F6-BD83-10ED5A558000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0736D8D0-A064-46C9-AEC4-4C1256D9DAB5}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="755">
   <si>
     <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2012 (Tasa respuesta: 33,87%)</t>
   </si>
@@ -72,30 +72,162 @@
     <t>Nunca</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>38,76%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>46,61%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>26,73%</t>
+  </si>
+  <si>
+    <t>49,44%</t>
+  </si>
+  <si>
+    <t>38,05%</t>
+  </si>
+  <si>
+    <t>31,28%</t>
+  </si>
+  <si>
+    <t>44,84%</t>
   </si>
   <si>
     <t>Solo alguna vez</t>
   </si>
   <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
     <t>Algunas veces</t>
   </si>
   <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>14,98%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>16,24%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
+  </si>
+  <si>
     <t>Muchas veces</t>
   </si>
   <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>4,22%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
     <t>Siempre</t>
   </si>
   <si>
+    <t>45,62%</t>
+  </si>
+  <si>
+    <t>37,79%</t>
+  </si>
+  <si>
+    <t>55,96%</t>
+  </si>
+  <si>
+    <t>42,89%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>44,5%</t>
+  </si>
+  <si>
+    <t>37,37%</t>
+  </si>
+  <si>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
     <t>9,11%</t>
   </si>
   <si>
-    <t>5,59%</t>
-  </si>
-  <si>
     <t>14,33%</t>
   </si>
   <si>
@@ -165,9 +297,6 @@
     <t>12,69%</t>
   </si>
   <si>
-    <t>9,21%</t>
-  </si>
-  <si>
     <t>17,14%</t>
   </si>
   <si>
@@ -183,9 +312,6 @@
     <t>9,23%</t>
   </si>
   <si>
-    <t>4,89%</t>
-  </si>
-  <si>
     <t>15,57%</t>
   </si>
   <si>
@@ -225,9 +351,6 @@
     <t>66,19%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Cordoba</t>
   </si>
   <si>
@@ -300,9 +423,6 @@
     <t>9,33%</t>
   </si>
   <si>
-    <t>26,73%</t>
-  </si>
-  <si>
     <t>16,25%</t>
   </si>
   <si>
@@ -369,1428 +489,1419 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>23,06%</t>
-  </si>
-  <si>
-    <t>17,43%</t>
-  </si>
-  <si>
-    <t>28,5%</t>
-  </si>
-  <si>
-    <t>22,82%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>19,36%</t>
-  </si>
-  <si>
-    <t>27,61%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>10,42%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>10,71%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>18,02%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>21,36%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>30,34%</t>
+  </si>
+  <si>
+    <t>16,78%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>17,06%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>24,08%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>21,45%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>40,76%</t>
+  </si>
+  <si>
+    <t>31,27%</t>
+  </si>
+  <si>
+    <t>50,88%</t>
+  </si>
+  <si>
+    <t>46,85%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>53,66%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>30,76%</t>
+  </si>
+  <si>
+    <t>31,41%</t>
+  </si>
+  <si>
+    <t>19,2%</t>
+  </si>
+  <si>
+    <t>45,0%</t>
+  </si>
+  <si>
+    <t>25,11%</t>
+  </si>
+  <si>
+    <t>17,64%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>18,47%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
+  </si>
+  <si>
+    <t>10,07%</t>
+  </si>
+  <si>
+    <t>31,56%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>20,52%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
+  </si>
+  <si>
+    <t>37,23%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>25,04%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>28,55%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>34,44%</t>
+  </si>
+  <si>
+    <t>25,22%</t>
+  </si>
+  <si>
+    <t>46,08%</t>
+  </si>
+  <si>
+    <t>28,29%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>43,66%</t>
+  </si>
+  <si>
+    <t>31,96%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>17,33%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>15,43%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>6,71%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>14,67%</t>
+  </si>
+  <si>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>65,06%</t>
+  </si>
+  <si>
+    <t>58,68%</t>
+  </si>
+  <si>
+    <t>45,08%</t>
+  </si>
+  <si>
+    <t>71,83%</t>
+  </si>
+  <si>
+    <t>56,28%</t>
+  </si>
+  <si>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>64,36%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>7,43%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>10,04%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>25,03%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>18,88%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>24,62%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>46,34%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>40,05%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>Sevilla</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>15,42%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>2,95%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>17,25%</t>
+  </si>
+  <si>
+    <t>26,26%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>12,49%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>16,34%</t>
+  </si>
+  <si>
+    <t>23,11%</t>
+  </si>
+  <si>
+    <t>29,64%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>34,31%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>28,23%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>37,41%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>26,88%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>35,42%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>39,42%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>18,72%</t>
+  </si>
+  <si>
+    <t>16,58%</t>
+  </si>
+  <si>
+    <t>14,75%</t>
+  </si>
+  <si>
+    <t>17,59%</t>
+  </si>
+  <si>
+    <t>17,13%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>18,93%</t>
+  </si>
+  <si>
+    <t>18,51%</t>
+  </si>
+  <si>
+    <t>16,39%</t>
+  </si>
+  <si>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>16,86%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>17,22%</t>
+  </si>
+  <si>
+    <t>20,43%</t>
+  </si>
+  <si>
+    <t>45,54%</t>
+  </si>
+  <si>
+    <t>42,67%</t>
+  </si>
+  <si>
+    <t>48,4%</t>
+  </si>
+  <si>
+    <t>44,64%</t>
+  </si>
+  <si>
+    <t>41,45%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>47,41%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2016 (Tasa respuesta: 35,56%)</t>
+  </si>
+  <si>
+    <t>30,64%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>39,66%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>45,9%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>26,69%</t>
+  </si>
+  <si>
+    <t>39,36%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>11,4%</t>
+  </si>
+  <si>
+    <t>6,16%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>19,22%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>4,8%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>11,29%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>12,42%</t>
+  </si>
+  <si>
+    <t>44,68%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>54,07%</t>
+  </si>
+  <si>
+    <t>41,26%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>50,96%</t>
+  </si>
+  <si>
+    <t>43,23%</t>
+  </si>
+  <si>
+    <t>36,32%</t>
+  </si>
+  <si>
+    <t>49,45%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>19,23%</t>
+  </si>
+  <si>
+    <t>22,18%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>12,0%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>22,42%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>14,62%</t>
+  </si>
+  <si>
+    <t>18,97%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>22,38%</t>
+  </si>
+  <si>
+    <t>20,74%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>21,86%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>15,91%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>17,31%</t>
+  </si>
+  <si>
+    <t>32,19%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>39,9%</t>
+  </si>
+  <si>
+    <t>30,92%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>16,26%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>24,02%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>18,86%</t>
+  </si>
+  <si>
+    <t>9,09%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>29,61%</t>
+  </si>
+  <si>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>39,23%</t>
+  </si>
+  <si>
+    <t>28,71%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>15,6%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
+  </si>
+  <si>
+    <t>22,37%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>22,97%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>32,5%</t>
+  </si>
+  <si>
+    <t>22,32%</t>
+  </si>
+  <si>
+    <t>43,13%</t>
+  </si>
+  <si>
+    <t>31,82%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>3,51%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>16,62%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>16,37%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>12,14%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>13,17%</t>
+  </si>
+  <si>
+    <t>46,83%</t>
+  </si>
+  <si>
+    <t>36,63%</t>
+  </si>
+  <si>
+    <t>55,98%</t>
+  </si>
+  <si>
+    <t>41,05%</t>
+  </si>
+  <si>
+    <t>31,0%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>12,87%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>21,96%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>41,24%</t>
+  </si>
+  <si>
+    <t>30,38%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>44,18%</t>
+  </si>
+  <si>
+    <t>30,7%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>41,19%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>51,96%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>29,59%</t>
+  </si>
+  <si>
+    <t>55,04%</t>
+  </si>
+  <si>
+    <t>41,69%</t>
+  </si>
+  <si>
+    <t>34,19%</t>
+  </si>
+  <si>
+    <t>49,94%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>18,78%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>16,4%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>27,02%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>36,6%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
   </si>
   <si>
     <t>15,82%</t>
   </si>
   <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>13,65%</t>
-  </si>
-  <si>
-    <t>48,6%</t>
-  </si>
-  <si>
-    <t>42,59%</t>
-  </si>
-  <si>
-    <t>55,19%</t>
-  </si>
-  <si>
-    <t>41,74%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>45,76%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>50,37%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>30,76%</t>
-  </si>
-  <si>
-    <t>31,41%</t>
-  </si>
-  <si>
-    <t>19,2%</t>
-  </si>
-  <si>
-    <t>45,0%</t>
-  </si>
-  <si>
-    <t>25,11%</t>
-  </si>
-  <si>
-    <t>17,64%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>18,47%</t>
-  </si>
-  <si>
-    <t>18,62%</t>
-  </si>
-  <si>
-    <t>10,07%</t>
-  </si>
-  <si>
-    <t>31,56%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>20,52%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
-  </si>
-  <si>
-    <t>37,23%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>25,04%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>28,55%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,31%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>25,22%</t>
-  </si>
-  <si>
-    <t>46,08%</t>
-  </si>
-  <si>
-    <t>28,29%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>43,66%</t>
-  </si>
-  <si>
-    <t>31,96%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>13,87%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>17,33%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>25,16%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>6,71%</t>
-  </si>
-  <si>
-    <t>25,42%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>10,06%</t>
-  </si>
-  <si>
-    <t>22,11%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>20,86%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>45,58%</t>
-  </si>
-  <si>
-    <t>65,06%</t>
-  </si>
-  <si>
-    <t>58,68%</t>
-  </si>
-  <si>
-    <t>45,08%</t>
-  </si>
-  <si>
-    <t>71,83%</t>
-  </si>
-  <si>
-    <t>56,28%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>64,36%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>7,43%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>11,48%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>8,85%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>10,04%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>25,03%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>18,88%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>24,62%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>46,34%</t>
-  </si>
-  <si>
-    <t>52,29%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>40,05%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>Sevilla</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>15,42%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>2,95%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>17,25%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>16,34%</t>
-  </si>
-  <si>
-    <t>23,11%</t>
-  </si>
-  <si>
-    <t>29,64%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>34,31%</t>
-  </si>
-  <si>
-    <t>34,81%</t>
-  </si>
-  <si>
-    <t>28,86%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>28,23%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>37,41%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>26,88%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>35,42%</t>
-  </si>
-  <si>
-    <t>31,24%</t>
-  </si>
-  <si>
-    <t>39,42%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>18,72%</t>
-  </si>
-  <si>
-    <t>16,58%</t>
-  </si>
-  <si>
-    <t>20,89%</t>
-  </si>
-  <si>
-    <t>14,75%</t>
-  </si>
-  <si>
-    <t>17,59%</t>
-  </si>
-  <si>
-    <t>17,13%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>18,51%</t>
-  </si>
-  <si>
-    <t>16,39%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>16,86%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>17,22%</t>
-  </si>
-  <si>
-    <t>20,43%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
-  </si>
-  <si>
-    <t>42,67%</t>
-  </si>
-  <si>
-    <t>48,4%</t>
-  </si>
-  <si>
-    <t>44,64%</t>
-  </si>
-  <si>
-    <t>41,45%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>45,18%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>47,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si puede dejar su puesto de trabajo al menos una hora sin tener que pedir un permiso especial si le ha surgido algún asunto personal o familiar en 2016 (Tasa respuesta: 35,56%)</t>
-  </si>
-  <si>
-    <t>30,64%</t>
-  </si>
-  <si>
-    <t>22,47%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>45,9%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>26,69%</t>
-  </si>
-  <si>
-    <t>39,36%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
-  </si>
-  <si>
-    <t>11,4%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>2,94%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>19,22%</t>
-  </si>
-  <si>
-    <t>10,64%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>4,8%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>12,42%</t>
-  </si>
-  <si>
-    <t>44,68%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>54,07%</t>
-  </si>
-  <si>
-    <t>41,26%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>43,23%</t>
-  </si>
-  <si>
-    <t>36,32%</t>
-  </si>
-  <si>
-    <t>49,45%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>19,23%</t>
-  </si>
-  <si>
-    <t>22,18%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>12,0%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>22,42%</t>
-  </si>
-  <si>
-    <t>13,43%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>18,97%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>18,17%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>22,38%</t>
-  </si>
-  <si>
-    <t>20,74%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>15,55%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>21,86%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>17,31%</t>
-  </si>
-  <si>
-    <t>32,19%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>39,9%</t>
-  </si>
-  <si>
-    <t>30,92%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>16,26%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>24,02%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>18,86%</t>
-  </si>
-  <si>
-    <t>9,09%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>15,49%</t>
-  </si>
-  <si>
-    <t>29,61%</t>
-  </si>
-  <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>39,23%</t>
-  </si>
-  <si>
-    <t>28,71%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>35,77%</t>
-  </si>
-  <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>15,6%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
-  </si>
-  <si>
-    <t>22,37%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>33,6%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>19,46%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>41,88%</t>
-  </si>
-  <si>
-    <t>32,5%</t>
-  </si>
-  <si>
-    <t>22,32%</t>
-  </si>
-  <si>
-    <t>43,13%</t>
-  </si>
-  <si>
-    <t>31,82%</t>
-  </si>
-  <si>
-    <t>24,44%</t>
-  </si>
-  <si>
-    <t>38,8%</t>
-  </si>
-  <si>
-    <t>3,51%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>16,37%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>12,14%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>46,83%</t>
-  </si>
-  <si>
-    <t>36,63%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>31,0%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>7,08%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>12,87%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>21,96%</t>
-  </si>
-  <si>
-    <t>21,68%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>30,38%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>44,18%</t>
-  </si>
-  <si>
-    <t>30,7%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>41,19%</t>
-  </si>
-  <si>
-    <t>30,41%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>29,59%</t>
-  </si>
-  <si>
-    <t>55,04%</t>
-  </si>
-  <si>
-    <t>41,69%</t>
-  </si>
-  <si>
-    <t>34,19%</t>
-  </si>
-  <si>
-    <t>49,94%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>18,78%</t>
-  </si>
-  <si>
-    <t>9,83%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>16,4%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>17,89%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>17,6%</t>
-  </si>
-  <si>
-    <t>36,6%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
     <t>27,53%</t>
   </si>
   <si>
@@ -1818,9 +1929,6 @@
     <t>46,74%</t>
   </si>
   <si>
-    <t>15,74%</t>
-  </si>
-  <si>
     <t>8,94%</t>
   </si>
   <si>
@@ -1828,9 +1936,6 @@
   </si>
   <si>
     <t>24,15%</t>
-  </si>
-  <si>
-    <t>16,24%</t>
   </si>
   <si>
     <t>34,82%</t>
@@ -2608,7 +2713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{980261B3-1B71-4069-BE80-DD48B601C10E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{633135F4-AEAE-41D2-97DD-8AB195169A10}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2726,223 +2831,253 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="D4" s="7">
+        <v>48817</v>
+      </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>29</v>
+      </c>
+      <c r="I4" s="7">
+        <v>32302</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="N4" s="7">
+        <v>81120</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D5" s="7">
+        <v>4543</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I5" s="7">
+        <v>5140</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N5" s="7">
+        <v>9683</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="D6" s="7">
+        <v>11140</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>7</v>
+      </c>
+      <c r="I6" s="7">
+        <v>7382</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>19</v>
+      </c>
+      <c r="N6" s="7">
+        <v>18522</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>11</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="D7" s="7">
+        <v>3985</v>
+      </c>
       <c r="E7" s="7" t="s">
-        <v>11</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
-      </c>
-      <c r="I7" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5013</v>
+      </c>
       <c r="J7" s="7" t="s">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>45</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>11</v>
+        <v>46</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
-      </c>
-      <c r="N7" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="N7" s="7">
+        <v>8998</v>
+      </c>
       <c r="O7" s="7" t="s">
-        <v>11</v>
+        <v>47</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>48</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>11</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
-      </c>
-      <c r="D8" s="7"/>
+        <v>56</v>
+      </c>
+      <c r="D8" s="7">
+        <v>57460</v>
+      </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
-      </c>
-      <c r="I8" s="7"/>
+        <v>34</v>
+      </c>
+      <c r="I8" s="7">
+        <v>37426</v>
+      </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>11</v>
+        <v>56</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
-      </c>
-      <c r="N8" s="7"/>
+        <v>90</v>
+      </c>
+      <c r="N8" s="7">
+        <v>94886</v>
+      </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>57</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2951,48 +3086,54 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
-      </c>
-      <c r="D9" s="7"/>
+        <v>121</v>
+      </c>
+      <c r="D9" s="7">
+        <v>125945</v>
+      </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7"/>
+        <v>78</v>
+      </c>
+      <c r="I9" s="7">
+        <v>87263</v>
+      </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
-      </c>
-      <c r="N9" s="7"/>
+        <v>199</v>
+      </c>
+      <c r="N9" s="7">
+        <v>213209</v>
+      </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -3004,13 +3145,13 @@
         <v>15684</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="H10" s="7">
         <v>10</v>
@@ -3019,13 +3160,13 @@
         <v>11006</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="M10" s="7">
         <v>26</v>
@@ -3034,19 +3175,19 @@
         <v>26690</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>12</v>
@@ -3055,13 +3196,13 @@
         <v>12968</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="H11" s="7">
         <v>13</v>
@@ -3070,13 +3211,13 @@
         <v>15479</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>29</v>
+        <v>73</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>30</v>
+        <v>74</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>31</v>
+        <v>75</v>
       </c>
       <c r="M11" s="7">
         <v>25</v>
@@ -3085,19 +3226,19 @@
         <v>28447</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>32</v>
+        <v>76</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>23</v>
@@ -3106,13 +3247,13 @@
         <v>24887</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>37</v>
+        <v>81</v>
       </c>
       <c r="H12" s="7">
         <v>11</v>
@@ -3121,13 +3262,13 @@
         <v>12393</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
       <c r="M12" s="7">
         <v>34</v>
@@ -3136,19 +3277,19 @@
         <v>37281</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>12</v>
@@ -3157,13 +3298,13 @@
         <v>11709</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -3172,13 +3313,13 @@
         <v>11228</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -3187,19 +3328,19 @@
         <v>22936</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>98</v>
@@ -3208,13 +3349,13 @@
         <v>106992</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="H14" s="7">
         <v>65</v>
@@ -3223,13 +3364,13 @@
         <v>71505</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="M14" s="7">
         <v>163</v>
@@ -3238,13 +3379,13 @@
         <v>178496</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3400,13 @@
         <v>172240</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>110</v>
@@ -3274,13 +3415,13 @@
         <v>121611</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>271</v>
@@ -3289,18 +3430,18 @@
         <v>293850</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3312,13 +3453,13 @@
         <v>8769</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>64</v>
+        <v>105</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>66</v>
+        <v>107</v>
       </c>
       <c r="H16" s="7">
         <v>8</v>
@@ -3327,13 +3468,13 @@
         <v>8103</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="M16" s="7">
         <v>17</v>
@@ -3342,19 +3483,19 @@
         <v>16872</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>70</v>
+        <v>111</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>72</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>12</v>
@@ -3363,13 +3504,13 @@
         <v>11303</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>74</v>
+        <v>115</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -3378,13 +3519,13 @@
         <v>3307</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>77</v>
+        <v>118</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>78</v>
+        <v>119</v>
       </c>
       <c r="M17" s="7">
         <v>15</v>
@@ -3393,19 +3534,19 @@
         <v>14610</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>80</v>
+        <v>121</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>81</v>
+        <v>122</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>24</v>
@@ -3414,13 +3555,13 @@
         <v>23138</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="H18" s="7">
         <v>12</v>
@@ -3429,13 +3570,13 @@
         <v>13523</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="M18" s="7">
         <v>36</v>
@@ -3444,19 +3585,19 @@
         <v>36661</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>88</v>
+        <v>128</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>89</v>
+        <v>129</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>90</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>29</v>
@@ -3465,13 +3606,13 @@
         <v>28872</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>91</v>
+        <v>131</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>92</v>
+        <v>132</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>93</v>
+        <v>133</v>
       </c>
       <c r="H19" s="7">
         <v>14</v>
@@ -3480,13 +3621,13 @@
         <v>13959</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>94</v>
+        <v>134</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>95</v>
+        <v>135</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="M19" s="7">
         <v>43</v>
@@ -3495,19 +3636,19 @@
         <v>42830</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>97</v>
+        <v>137</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>71</v>
@@ -3516,13 +3657,13 @@
         <v>71119</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>100</v>
+        <v>140</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>101</v>
+        <v>141</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>102</v>
+        <v>142</v>
       </c>
       <c r="H20" s="7">
         <v>41</v>
@@ -3531,13 +3672,13 @@
         <v>43475</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>103</v>
+        <v>143</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>104</v>
+        <v>144</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>105</v>
+        <v>145</v>
       </c>
       <c r="M20" s="7">
         <v>112</v>
@@ -3546,13 +3687,13 @@
         <v>114594</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>106</v>
+        <v>146</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>108</v>
+        <v>148</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3708,13 @@
         <v>143201</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>78</v>
@@ -3582,13 +3723,13 @@
         <v>82366</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>223</v>
@@ -3597,270 +3738,270 @@
         <v>225567</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7">
-        <v>61960</v>
+        <v>13142</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>110</v>
+        <v>23</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>111</v>
+        <v>150</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="H22" s="7">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="I22" s="7">
-        <v>43289</v>
+        <v>10987</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>113</v>
+        <v>152</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>114</v>
+        <v>153</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>115</v>
+        <v>154</v>
       </c>
       <c r="M22" s="7">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="N22" s="7">
-        <v>105249</v>
+        <v>24129</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>117</v>
+        <v>155</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>118</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="7">
         <v>12</v>
       </c>
-      <c r="C23" s="7">
-        <v>16</v>
-      </c>
       <c r="D23" s="7">
-        <v>17384</v>
+        <v>12841</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>119</v>
+        <v>158</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>120</v>
+        <v>159</v>
       </c>
       <c r="H23" s="7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="I23" s="7">
-        <v>17478</v>
+        <v>12338</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>42</v>
+        <v>160</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>122</v>
+        <v>162</v>
       </c>
       <c r="M23" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="N23" s="7">
-        <v>34861</v>
+        <v>25178</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>124</v>
+        <v>164</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>125</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="D24" s="7">
-        <v>30402</v>
+        <v>19262</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>126</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>73</v>
+        <v>166</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>127</v>
+        <v>167</v>
       </c>
       <c r="H24" s="7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="I24" s="7">
-        <v>29263</v>
+        <v>21881</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>128</v>
+        <v>168</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>129</v>
+        <v>169</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>130</v>
+        <v>170</v>
       </c>
       <c r="M24" s="7">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="N24" s="7">
-        <v>59665</v>
+        <v>41143</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>131</v>
+        <v>171</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>132</v>
+        <v>172</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>133</v>
+        <v>173</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D25" s="7">
-        <v>28333</v>
+        <v>24347</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>134</v>
+        <v>174</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>136</v>
+        <v>176</v>
       </c>
       <c r="H25" s="7">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="I25" s="7">
-        <v>20500</v>
+        <v>15487</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>137</v>
+        <v>177</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>139</v>
+        <v>179</v>
       </c>
       <c r="M25" s="7">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="N25" s="7">
-        <v>48833</v>
+        <v>39835</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>141</v>
+        <v>180</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>142</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
-        <v>122</v>
+        <v>66</v>
       </c>
       <c r="D26" s="7">
-        <v>130557</v>
+        <v>73097</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>143</v>
+        <v>182</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>145</v>
+        <v>184</v>
       </c>
       <c r="H26" s="7">
-        <v>72</v>
+        <v>38</v>
       </c>
       <c r="I26" s="7">
-        <v>79181</v>
+        <v>41755</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>146</v>
+        <v>185</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>147</v>
+        <v>186</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>148</v>
+        <v>187</v>
       </c>
       <c r="M26" s="7">
-        <v>194</v>
+        <v>104</v>
       </c>
       <c r="N26" s="7">
-        <v>209738</v>
+        <v>114852</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>149</v>
+        <v>188</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>150</v>
+        <v>189</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>151</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3869,54 +4010,54 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>252</v>
+        <v>131</v>
       </c>
       <c r="D27" s="7">
-        <v>268635</v>
+        <v>142689</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
-        <v>174</v>
+        <v>96</v>
       </c>
       <c r="I27" s="7">
-        <v>189711</v>
+        <v>102448</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
-        <v>426</v>
+        <v>227</v>
       </c>
       <c r="N27" s="7">
-        <v>458346</v>
+        <v>245137</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -3928,13 +4069,13 @@
         <v>17159</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="H28" s="7">
         <v>16</v>
@@ -3943,13 +4084,13 @@
         <v>17476</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>156</v>
+        <v>195</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>157</v>
+        <v>196</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>158</v>
+        <v>197</v>
       </c>
       <c r="M28" s="7">
         <v>31</v>
@@ -3958,19 +4099,19 @@
         <v>34635</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>159</v>
+        <v>198</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>160</v>
+        <v>199</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>8</v>
@@ -3979,13 +4120,13 @@
         <v>8222</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="H29" s="7">
         <v>10</v>
@@ -3994,13 +4135,13 @@
         <v>10360</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="M29" s="7">
         <v>18</v>
@@ -4009,19 +4150,19 @@
         <v>18582</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>169</v>
+        <v>208</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>170</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>21</v>
@@ -4030,13 +4171,13 @@
         <v>21570</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>171</v>
+        <v>210</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>173</v>
+        <v>212</v>
       </c>
       <c r="H30" s="7">
         <v>8</v>
@@ -4045,13 +4186,13 @@
         <v>7905</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="M30" s="7">
         <v>29</v>
@@ -4060,19 +4201,19 @@
         <v>29474</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>6</v>
@@ -4081,13 +4222,13 @@
         <v>7018</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="H31" s="7">
         <v>4</v>
@@ -4096,13 +4237,13 @@
         <v>4154</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>183</v>
+        <v>221</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>184</v>
+        <v>222</v>
       </c>
       <c r="M31" s="7">
         <v>10</v>
@@ -4111,19 +4252,19 @@
         <v>11172</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>25</v>
@@ -4132,13 +4273,13 @@
         <v>28345</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="H32" s="7">
         <v>16</v>
@@ -4147,13 +4288,13 @@
         <v>15739</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>191</v>
+        <v>229</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>192</v>
+        <v>230</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>193</v>
+        <v>231</v>
       </c>
       <c r="M32" s="7">
         <v>41</v>
@@ -4162,13 +4303,13 @@
         <v>44084</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>195</v>
+        <v>233</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>196</v>
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -4183,13 +4324,13 @@
         <v>82314</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>54</v>
@@ -4198,13 +4339,13 @@
         <v>55634</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>129</v>
@@ -4213,18 +4354,18 @@
         <v>137947</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -4236,13 +4377,13 @@
         <v>8089</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>198</v>
+        <v>236</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>199</v>
+        <v>237</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="H34" s="7">
         <v>6</v>
@@ -4251,13 +4392,13 @@
         <v>6546</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>201</v>
+        <v>239</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>202</v>
+        <v>240</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>203</v>
+        <v>241</v>
       </c>
       <c r="M34" s="7">
         <v>14</v>
@@ -4266,19 +4407,19 @@
         <v>14635</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>204</v>
+        <v>242</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>206</v>
+        <v>244</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
         <v>6</v>
@@ -4287,13 +4428,13 @@
         <v>6980</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>207</v>
+        <v>245</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="H35" s="7">
         <v>2</v>
@@ -4302,13 +4443,13 @@
         <v>2823</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>211</v>
+        <v>249</v>
       </c>
       <c r="M35" s="7">
         <v>8</v>
@@ -4317,19 +4458,19 @@
         <v>9803</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>213</v>
+        <v>251</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>15</v>
@@ -4338,13 +4479,13 @@
         <v>18243</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>128</v>
+        <v>253</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>215</v>
+        <v>254</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="H36" s="7">
         <v>8</v>
@@ -4353,13 +4494,13 @@
         <v>7739</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>217</v>
+        <v>256</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>218</v>
+        <v>257</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>219</v>
+        <v>258</v>
       </c>
       <c r="M36" s="7">
         <v>23</v>
@@ -4368,19 +4509,19 @@
         <v>25983</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>220</v>
+        <v>259</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>221</v>
+        <v>260</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>222</v>
+        <v>261</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>19</v>
@@ -4389,13 +4530,13 @@
         <v>19725</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>223</v>
+        <v>262</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>214</v>
+        <v>252</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>224</v>
+        <v>263</v>
       </c>
       <c r="H37" s="7">
         <v>6</v>
@@ -4404,13 +4545,13 @@
         <v>5738</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>225</v>
+        <v>264</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>226</v>
+        <v>265</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
       <c r="M37" s="7">
         <v>25</v>
@@ -4419,19 +4560,19 @@
         <v>25463</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>228</v>
+        <v>267</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>227</v>
+        <v>266</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>61</v>
@@ -4440,13 +4581,13 @@
         <v>65228</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>230</v>
+        <v>269</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>231</v>
+        <v>270</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="H38" s="7">
         <v>30</v>
@@ -4455,13 +4596,13 @@
         <v>32446</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>234</v>
+        <v>273</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>235</v>
+        <v>274</v>
       </c>
       <c r="M38" s="7">
         <v>91</v>
@@ -4470,13 +4611,13 @@
         <v>97674</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>236</v>
+        <v>275</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>238</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -4491,13 +4632,13 @@
         <v>118266</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>52</v>
@@ -4506,13 +4647,13 @@
         <v>55292</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>161</v>
@@ -4521,18 +4662,18 @@
         <v>173558</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -4544,13 +4685,13 @@
         <v>20147</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>241</v>
+        <v>280</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>242</v>
+        <v>281</v>
       </c>
       <c r="H40" s="7">
         <v>16</v>
@@ -4559,13 +4700,13 @@
         <v>17341</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>243</v>
+        <v>282</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>244</v>
+        <v>283</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>136</v>
+        <v>284</v>
       </c>
       <c r="M40" s="7">
         <v>36</v>
@@ -4574,19 +4715,19 @@
         <v>37489</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C41" s="7">
         <v>14</v>
@@ -4595,13 +4736,13 @@
         <v>14462</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="H41" s="7">
         <v>9</v>
@@ -4610,13 +4751,13 @@
         <v>9719</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="M41" s="7">
         <v>23</v>
@@ -4625,19 +4766,19 @@
         <v>24181</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C42" s="7">
         <v>61</v>
@@ -4646,13 +4787,13 @@
         <v>69063</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="H42" s="7">
         <v>23</v>
@@ -4661,13 +4802,13 @@
         <v>25455</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
       <c r="M42" s="7">
         <v>84</v>
@@ -4676,19 +4817,19 @@
         <v>94518</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>153</v>
+        <v>192</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C43" s="7">
         <v>59</v>
@@ -4697,13 +4838,13 @@
         <v>59369</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="H43" s="7">
         <v>33</v>
@@ -4712,13 +4853,13 @@
         <v>34391</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="M43" s="7">
         <v>92</v>
@@ -4727,19 +4868,19 @@
         <v>93760</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>98</v>
@@ -4748,13 +4889,13 @@
         <v>108033</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="H44" s="7">
         <v>90</v>
@@ -4763,13 +4904,13 @@
         <v>95258</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="M44" s="7">
         <v>188</v>
@@ -4778,13 +4919,13 @@
         <v>203291</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>278</v>
+        <v>318</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>279</v>
+        <v>319</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>280</v>
+        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,13 +4940,13 @@
         <v>271074</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>171</v>
@@ -4814,13 +4955,13 @@
         <v>182165</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>423</v>
@@ -4829,18 +4970,18 @@
         <v>453239</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -4852,13 +4993,13 @@
         <v>27297</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>282</v>
+        <v>322</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>283</v>
+        <v>150</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="H46" s="7">
         <v>24</v>
@@ -4867,13 +5008,13 @@
         <v>27234</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="M46" s="7">
         <v>48</v>
@@ -4882,19 +5023,19 @@
         <v>54531</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C47" s="7">
         <v>13</v>
@@ -4903,13 +5044,13 @@
         <v>13862</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="H47" s="7">
         <v>13</v>
@@ -4918,13 +5059,13 @@
         <v>13783</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>295</v>
+        <v>334</v>
       </c>
       <c r="M47" s="7">
         <v>26</v>
@@ -4933,19 +5074,19 @@
         <v>27645</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>71</v>
+        <v>112</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C48" s="7">
         <v>73</v>
@@ -4954,13 +5095,13 @@
         <v>78179</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>298</v>
+        <v>337</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>299</v>
+        <v>338</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="H48" s="7">
         <v>40</v>
@@ -4969,13 +5110,13 @@
         <v>43153</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="M48" s="7">
         <v>113</v>
@@ -4984,19 +5125,19 @@
         <v>121332</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>306</v>
+        <v>345</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C49" s="7">
         <v>102</v>
@@ -5005,13 +5146,13 @@
         <v>107376</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>308</v>
+        <v>347</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>309</v>
+        <v>348</v>
       </c>
       <c r="H49" s="7">
         <v>82</v>
@@ -5020,13 +5161,13 @@
         <v>89987</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>310</v>
+        <v>349</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>311</v>
+        <v>350</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>312</v>
+        <v>351</v>
       </c>
       <c r="M49" s="7">
         <v>184</v>
@@ -5035,19 +5176,19 @@
         <v>197364</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>313</v>
+        <v>352</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>314</v>
+        <v>353</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>315</v>
+        <v>354</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C50" s="7">
         <v>125</v>
@@ -5056,13 +5197,13 @@
         <v>135517</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>316</v>
+        <v>355</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>318</v>
+        <v>357</v>
       </c>
       <c r="H50" s="7">
         <v>75</v>
@@ -5071,13 +5212,13 @@
         <v>84353</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>319</v>
+        <v>358</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>320</v>
+        <v>359</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>321</v>
+        <v>360</v>
       </c>
       <c r="M50" s="7">
         <v>200</v>
@@ -5086,13 +5227,13 @@
         <v>219870</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>322</v>
+        <v>361</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>324</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -5107,13 +5248,13 @@
         <v>362232</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H51" s="7">
         <v>234</v>
@@ -5122,13 +5263,13 @@
         <v>258510</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M51" s="7">
         <v>571</v>
@@ -5137,13 +5278,13 @@
         <v>620742</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -5160,13 +5301,13 @@
         <v>159106</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>325</v>
+        <v>364</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>327</v>
+        <v>366</v>
       </c>
       <c r="H52" s="7">
         <v>120</v>
@@ -5175,13 +5316,13 @@
         <v>130995</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>328</v>
+        <v>367</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>329</v>
+        <v>368</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>133</v>
+        <v>369</v>
       </c>
       <c r="M52" s="7">
         <v>268</v>
@@ -5190,19 +5331,19 @@
         <v>290101</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>331</v>
+        <v>371</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C53" s="7">
         <v>81</v>
@@ -5211,13 +5352,13 @@
         <v>85180</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>332</v>
+        <v>372</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>333</v>
+        <v>373</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>334</v>
+        <v>374</v>
       </c>
       <c r="H53" s="7">
         <v>65</v>
@@ -5226,13 +5367,13 @@
         <v>72949</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>336</v>
+        <v>376</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>337</v>
+        <v>377</v>
       </c>
       <c r="M53" s="7">
         <v>146</v>
@@ -5241,19 +5382,19 @@
         <v>158129</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>338</v>
+        <v>378</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>340</v>
+        <v>380</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C54" s="7">
         <v>247</v>
@@ -5262,13 +5403,13 @@
         <v>265481</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>342</v>
+        <v>382</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>343</v>
+        <v>162</v>
       </c>
       <c r="H54" s="7">
         <v>130</v>
@@ -5277,13 +5418,13 @@
         <v>139432</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>345</v>
+        <v>384</v>
       </c>
       <c r="M54" s="7">
         <v>377</v>
@@ -5292,19 +5433,19 @@
         <v>404913</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>346</v>
+        <v>385</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C55" s="7">
         <v>255</v>
@@ -5313,13 +5454,13 @@
         <v>262402</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>349</v>
+        <v>388</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>350</v>
+        <v>389</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="H55" s="7">
         <v>169</v>
@@ -5328,13 +5469,13 @@
         <v>179957</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>352</v>
+        <v>391</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>354</v>
+        <v>393</v>
       </c>
       <c r="M55" s="7">
         <v>424</v>
@@ -5343,34 +5484,34 @@
         <v>442358</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>355</v>
+        <v>394</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C56" s="7">
         <v>600</v>
       </c>
       <c r="D56" s="7">
-        <v>645791</v>
+        <v>645792</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>357</v>
+        <v>396</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>358</v>
+        <v>397</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>359</v>
+        <v>398</v>
       </c>
       <c r="H56" s="7">
         <v>389</v>
@@ -5379,13 +5520,13 @@
         <v>421957</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>360</v>
+        <v>399</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="M56" s="7">
         <v>989</v>
@@ -5394,13 +5535,13 @@
         <v>1067748</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,16 +5553,16 @@
         <v>1331</v>
       </c>
       <c r="D57" s="7">
-        <v>1417960</v>
+        <v>1417961</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H57" s="7">
         <v>873</v>
@@ -5430,13 +5571,13 @@
         <v>945290</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M57" s="7">
         <v>2204</v>
@@ -5445,18 +5586,18 @@
         <v>2363250</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -5480,7 +5621,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFE274B2-1D3E-4E4B-94A1-24AEE97FAFA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DFD0133-7482-49B2-856A-A28428D5221E}">
   <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5497,7 +5638,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5604,13 +5745,13 @@
         <v>41722</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>370</v>
+        <v>409</v>
       </c>
       <c r="H4" s="7">
         <v>36</v>
@@ -5619,13 +5760,13 @@
         <v>36231</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>371</v>
+        <v>410</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>372</v>
+        <v>411</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>373</v>
+        <v>412</v>
       </c>
       <c r="M4" s="7">
         <v>73</v>
@@ -5634,19 +5775,19 @@
         <v>77953</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>374</v>
+        <v>413</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>375</v>
+        <v>414</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>376</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
         <v>6</v>
@@ -5655,13 +5796,13 @@
         <v>6913</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>377</v>
+        <v>416</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>378</v>
+        <v>417</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>379</v>
+        <v>418</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -5670,13 +5811,13 @@
         <v>6223</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>380</v>
+        <v>419</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>98</v>
+        <v>138</v>
       </c>
       <c r="M5" s="7">
         <v>11</v>
@@ -5685,19 +5826,19 @@
         <v>13136</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>382</v>
+        <v>421</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>383</v>
+        <v>422</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C6" s="7">
         <v>12</v>
@@ -5706,13 +5847,13 @@
         <v>13941</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>385</v>
+        <v>424</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>387</v>
+        <v>426</v>
       </c>
       <c r="H6" s="7">
         <v>11</v>
@@ -5721,13 +5862,13 @@
         <v>11298</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>388</v>
+        <v>427</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>390</v>
+        <v>429</v>
       </c>
       <c r="M6" s="7">
         <v>23</v>
@@ -5736,19 +5877,19 @@
         <v>25239</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>391</v>
+        <v>430</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>392</v>
+        <v>161</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>393</v>
+        <v>431</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C7" s="7">
         <v>10</v>
@@ -5757,13 +5898,13 @@
         <v>12746</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>395</v>
+        <v>433</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>396</v>
+        <v>434</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -5772,13 +5913,13 @@
         <v>5559</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>397</v>
+        <v>435</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>398</v>
+        <v>436</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="M7" s="7">
         <v>16</v>
@@ -5787,19 +5928,19 @@
         <v>18306</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>335</v>
+        <v>375</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>400</v>
+        <v>438</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>401</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C8" s="7">
         <v>55</v>
@@ -5808,13 +5949,13 @@
         <v>60844</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>402</v>
+        <v>440</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>403</v>
+        <v>441</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>404</v>
+        <v>442</v>
       </c>
       <c r="H8" s="7">
         <v>40</v>
@@ -5823,13 +5964,13 @@
         <v>41664</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>405</v>
+        <v>443</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>406</v>
+        <v>444</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>407</v>
+        <v>445</v>
       </c>
       <c r="M8" s="7">
         <v>95</v>
@@ -5838,13 +5979,13 @@
         <v>102507</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>409</v>
+        <v>447</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>410</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5859,13 +6000,13 @@
         <v>136166</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H9" s="7">
         <v>98</v>
@@ -5874,13 +6015,13 @@
         <v>100975</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M9" s="7">
         <v>218</v>
@@ -5889,18 +6030,18 @@
         <v>237141</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -5912,13 +6053,13 @@
         <v>21074</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>411</v>
+        <v>449</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>412</v>
+        <v>450</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -5927,13 +6068,13 @@
         <v>25209</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>413</v>
+        <v>451</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>414</v>
+        <v>452</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>415</v>
+        <v>453</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -5942,19 +6083,19 @@
         <v>46283</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>417</v>
+        <v>455</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>418</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
         <v>24</v>
@@ -5963,13 +6104,13 @@
         <v>26254</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>419</v>
+        <v>457</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>420</v>
+        <v>458</v>
       </c>
       <c r="H11" s="7">
         <v>15</v>
@@ -5978,13 +6119,13 @@
         <v>15264</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>421</v>
+        <v>459</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>422</v>
+        <v>460</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>423</v>
+        <v>461</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -5993,19 +6134,19 @@
         <v>41519</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>424</v>
+        <v>462</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>425</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C12" s="7">
         <v>40</v>
@@ -6014,13 +6155,13 @@
         <v>41672</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>426</v>
+        <v>464</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>427</v>
+        <v>465</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>428</v>
+        <v>466</v>
       </c>
       <c r="H12" s="7">
         <v>17</v>
@@ -6029,13 +6170,13 @@
         <v>17237</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>429</v>
+        <v>467</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="M12" s="7">
         <v>57</v>
@@ -6044,19 +6185,19 @@
         <v>58909</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>431</v>
+        <v>469</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>432</v>
+        <v>470</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>433</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C13" s="7">
         <v>25</v>
@@ -6065,13 +6206,13 @@
         <v>26475</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>472</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>435</v>
+        <v>473</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>474</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -6080,13 +6221,13 @@
         <v>10610</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>437</v>
+        <v>475</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>438</v>
+        <v>476</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -6095,19 +6236,19 @@
         <v>37085</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>439</v>
+        <v>477</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>394</v>
+        <v>432</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>440</v>
+        <v>478</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C14" s="7">
         <v>51</v>
@@ -6116,13 +6257,13 @@
         <v>54822</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>441</v>
+        <v>479</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>442</v>
+        <v>480</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>443</v>
+        <v>481</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -6131,13 +6272,13 @@
         <v>45359</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>444</v>
+        <v>482</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>446</v>
+        <v>484</v>
       </c>
       <c r="M14" s="7">
         <v>94</v>
@@ -6146,13 +6287,13 @@
         <v>100181</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>447</v>
+        <v>485</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>448</v>
+        <v>486</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>449</v>
+        <v>487</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6167,13 +6308,13 @@
         <v>170297</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H15" s="7">
         <v>109</v>
@@ -6182,13 +6323,13 @@
         <v>113680</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M15" s="7">
         <v>266</v>
@@ -6197,18 +6338,18 @@
         <v>283977</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6220,13 +6361,13 @@
         <v>28919</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>450</v>
+        <v>488</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>451</v>
+        <v>489</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>452</v>
+        <v>490</v>
       </c>
       <c r="H16" s="7">
         <v>22</v>
@@ -6235,13 +6376,13 @@
         <v>21688</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>453</v>
+        <v>491</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>440</v>
+        <v>478</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>454</v>
+        <v>492</v>
       </c>
       <c r="M16" s="7">
         <v>53</v>
@@ -6250,19 +6391,19 @@
         <v>50607</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>455</v>
+        <v>493</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>456</v>
+        <v>494</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>457</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
         <v>15</v>
@@ -6271,13 +6412,13 @@
         <v>14991</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>458</v>
+        <v>180</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>459</v>
+        <v>496</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>460</v>
+        <v>497</v>
       </c>
       <c r="H17" s="7">
         <v>8</v>
@@ -6286,13 +6427,13 @@
         <v>7666</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>461</v>
+        <v>498</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>462</v>
+        <v>499</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>463</v>
+        <v>500</v>
       </c>
       <c r="M17" s="7">
         <v>23</v>
@@ -6301,19 +6442,19 @@
         <v>22657</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>419</v>
+        <v>457</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>464</v>
+        <v>501</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>465</v>
+        <v>502</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C18" s="7">
         <v>39</v>
@@ -6322,13 +6463,13 @@
         <v>37427</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>466</v>
+        <v>503</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>467</v>
+        <v>504</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>468</v>
+        <v>505</v>
       </c>
       <c r="H18" s="7">
         <v>25</v>
@@ -6337,13 +6478,13 @@
         <v>23078</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>469</v>
+        <v>506</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>348</v>
+        <v>387</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>470</v>
+        <v>507</v>
       </c>
       <c r="M18" s="7">
         <v>64</v>
@@ -6352,19 +6493,19 @@
         <v>60506</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>471</v>
+        <v>508</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>472</v>
+        <v>509</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>473</v>
+        <v>510</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C19" s="7">
         <v>29</v>
@@ -6373,13 +6514,13 @@
         <v>28306</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>474</v>
+        <v>511</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>475</v>
+        <v>512</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>476</v>
+        <v>513</v>
       </c>
       <c r="H19" s="7">
         <v>18</v>
@@ -6388,13 +6529,13 @@
         <v>18862</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>477</v>
+        <v>514</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>478</v>
+        <v>515</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>479</v>
+        <v>516</v>
       </c>
       <c r="M19" s="7">
         <v>47</v>
@@ -6403,19 +6544,19 @@
         <v>47168</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>430</v>
+        <v>468</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>480</v>
+        <v>517</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>481</v>
+        <v>518</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C20" s="7">
         <v>18</v>
@@ -6424,13 +6565,13 @@
         <v>16742</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>483</v>
+        <v>520</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>484</v>
+        <v>521</v>
       </c>
       <c r="H20" s="7">
         <v>13</v>
@@ -6439,13 +6580,13 @@
         <v>13038</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>486</v>
+        <v>523</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>175</v>
+        <v>214</v>
       </c>
       <c r="M20" s="7">
         <v>31</v>
@@ -6454,13 +6595,13 @@
         <v>29780</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>487</v>
+        <v>524</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>488</v>
+        <v>525</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>489</v>
+        <v>526</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6475,13 +6616,13 @@
         <v>126384</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H21" s="7">
         <v>86</v>
@@ -6490,13 +6631,13 @@
         <v>84333</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M21" s="7">
         <v>218</v>
@@ -6505,18 +6646,18 @@
         <v>210717</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>109</v>
+        <v>149</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -6528,13 +6669,13 @@
         <v>35145</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>490</v>
+        <v>527</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>492</v>
+        <v>529</v>
       </c>
       <c r="H22" s="7">
         <v>25</v>
@@ -6543,13 +6684,13 @@
         <v>26602</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>493</v>
+        <v>530</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>494</v>
+        <v>531</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>495</v>
+        <v>532</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -6558,19 +6699,19 @@
         <v>61747</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>496</v>
+        <v>533</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>497</v>
+        <v>534</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>498</v>
+        <v>535</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C23" s="7">
         <v>4</v>
@@ -6579,13 +6720,13 @@
         <v>3936</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>499</v>
+        <v>536</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>500</v>
+        <v>537</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>501</v>
+        <v>538</v>
       </c>
       <c r="H23" s="7">
         <v>4</v>
@@ -6594,13 +6735,13 @@
         <v>4629</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>212</v>
+        <v>250</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>502</v>
+        <v>539</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="M23" s="7">
         <v>8</v>
@@ -6609,19 +6750,19 @@
         <v>8565</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>504</v>
+        <v>541</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>505</v>
+        <v>542</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>506</v>
+        <v>29</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C24" s="7">
         <v>13</v>
@@ -6630,13 +6771,13 @@
         <v>14080</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>507</v>
+        <v>543</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>508</v>
+        <v>544</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>509</v>
+        <v>545</v>
       </c>
       <c r="H24" s="7">
         <v>8</v>
@@ -6645,13 +6786,13 @@
         <v>7607</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>510</v>
+        <v>546</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>511</v>
+        <v>547</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>512</v>
+        <v>548</v>
       </c>
       <c r="M24" s="7">
         <v>21</v>
@@ -6660,19 +6801,19 @@
         <v>21688</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>513</v>
+        <v>549</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>515</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C25" s="7">
         <v>6</v>
@@ -6681,13 +6822,13 @@
         <v>6483</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>339</v>
+        <v>379</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>516</v>
+        <v>552</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>517</v>
+        <v>553</v>
       </c>
       <c r="H25" s="7">
         <v>9</v>
@@ -6696,13 +6837,13 @@
         <v>9419</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>518</v>
+        <v>554</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>386</v>
+        <v>425</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>519</v>
+        <v>555</v>
       </c>
       <c r="M25" s="7">
         <v>15</v>
@@ -6711,19 +6852,19 @@
         <v>15902</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>520</v>
+        <v>556</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>521</v>
+        <v>557</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>522</v>
+        <v>558</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C26" s="7">
         <v>49</v>
@@ -6732,13 +6873,13 @@
         <v>52536</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>523</v>
+        <v>559</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>524</v>
+        <v>560</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>525</v>
+        <v>561</v>
       </c>
       <c r="H26" s="7">
         <v>33</v>
@@ -6747,13 +6888,13 @@
         <v>33602</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>526</v>
+        <v>562</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>527</v>
+        <v>563</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>528</v>
+        <v>564</v>
       </c>
       <c r="M26" s="7">
         <v>82</v>
@@ -6762,13 +6903,13 @@
         <v>86138</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>529</v>
+        <v>565</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>530</v>
+        <v>566</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>531</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6783,13 +6924,13 @@
         <v>112180</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H27" s="7">
         <v>79</v>
@@ -6798,13 +6939,13 @@
         <v>81859</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M27" s="7">
         <v>183</v>
@@ -6813,18 +6954,18 @@
         <v>194039</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>152</v>
+        <v>191</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -6836,13 +6977,13 @@
         <v>1904</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>532</v>
+        <v>568</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>533</v>
+        <v>569</v>
       </c>
       <c r="H28" s="7">
         <v>2</v>
@@ -6851,13 +6992,13 @@
         <v>2501</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>534</v>
+        <v>570</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>535</v>
+        <v>571</v>
       </c>
       <c r="M28" s="7">
         <v>4</v>
@@ -6866,19 +7007,19 @@
         <v>4405</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>536</v>
+        <v>572</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>537</v>
+        <v>573</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>538</v>
+        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C29" s="7">
         <v>11</v>
@@ -6887,13 +7028,13 @@
         <v>12689</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>539</v>
+        <v>575</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>540</v>
+        <v>576</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="H29" s="7">
         <v>8</v>
@@ -6902,13 +7043,13 @@
         <v>7131</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>542</v>
+        <v>578</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>543</v>
+        <v>579</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>544</v>
+        <v>580</v>
       </c>
       <c r="M29" s="7">
         <v>19</v>
@@ -6917,19 +7058,19 @@
         <v>19819</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>545</v>
+        <v>581</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>546</v>
+        <v>582</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C30" s="7">
         <v>25</v>
@@ -6938,13 +7079,13 @@
         <v>25028</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>548</v>
+        <v>584</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>549</v>
+        <v>585</v>
       </c>
       <c r="H30" s="7">
         <v>18</v>
@@ -6953,13 +7094,13 @@
         <v>16834</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>550</v>
+        <v>586</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>551</v>
+        <v>587</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>552</v>
+        <v>588</v>
       </c>
       <c r="M30" s="7">
         <v>43</v>
@@ -6968,19 +7109,19 @@
         <v>41861</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>553</v>
+        <v>589</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>554</v>
+        <v>590</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>555</v>
+        <v>591</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C31" s="7">
         <v>33</v>
@@ -6989,13 +7130,13 @@
         <v>33333</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>556</v>
+        <v>592</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>557</v>
+        <v>593</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>558</v>
+        <v>594</v>
       </c>
       <c r="H31" s="7">
         <v>26</v>
@@ -7004,13 +7145,13 @@
         <v>23507</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>559</v>
+        <v>595</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>560</v>
+        <v>596</v>
       </c>
       <c r="L31" s="7" t="s">
-        <v>561</v>
+        <v>597</v>
       </c>
       <c r="M31" s="7">
         <v>59</v>
@@ -7019,19 +7160,19 @@
         <v>56840</v>
       </c>
       <c r="O31" s="7" t="s">
-        <v>562</v>
+        <v>598</v>
       </c>
       <c r="P31" s="7" t="s">
-        <v>563</v>
+        <v>599</v>
       </c>
       <c r="Q31" s="7" t="s">
-        <v>564</v>
+        <v>600</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C32" s="7">
         <v>8</v>
@@ -7040,13 +7181,13 @@
         <v>7978</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>566</v>
+        <v>602</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>567</v>
+        <v>603</v>
       </c>
       <c r="H32" s="7">
         <v>5</v>
@@ -7055,13 +7196,13 @@
         <v>5445</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>568</v>
+        <v>604</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="L32" s="7" t="s">
-        <v>351</v>
+        <v>390</v>
       </c>
       <c r="M32" s="7">
         <v>13</v>
@@ -7070,13 +7211,13 @@
         <v>13423</v>
       </c>
       <c r="O32" s="7" t="s">
-        <v>67</v>
+        <v>108</v>
       </c>
       <c r="P32" s="7" t="s">
-        <v>569</v>
+        <v>605</v>
       </c>
       <c r="Q32" s="7" t="s">
-        <v>570</v>
+        <v>606</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -7091,13 +7232,13 @@
         <v>80930</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H33" s="7">
         <v>59</v>
@@ -7106,13 +7247,13 @@
         <v>55418</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M33" s="7">
         <v>138</v>
@@ -7121,18 +7262,18 @@
         <v>136348</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>197</v>
+        <v>235</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>10</v>
@@ -7144,13 +7285,13 @@
         <v>1634</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>571</v>
+        <v>607</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>572</v>
+        <v>608</v>
       </c>
       <c r="H34" s="7">
         <v>4</v>
@@ -7159,13 +7300,13 @@
         <v>4305</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>174</v>
+        <v>213</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>573</v>
+        <v>609</v>
       </c>
       <c r="L34" s="7" t="s">
-        <v>574</v>
+        <v>610</v>
       </c>
       <c r="M34" s="7">
         <v>5</v>
@@ -7174,19 +7315,19 @@
         <v>5939</v>
       </c>
       <c r="O34" s="7" t="s">
-        <v>575</v>
+        <v>611</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>576</v>
+        <v>612</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C35" s="7">
         <v>19</v>
@@ -7195,13 +7336,13 @@
         <v>19236</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>577</v>
+        <v>613</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>578</v>
+        <v>614</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>579</v>
+        <v>615</v>
       </c>
       <c r="H35" s="7">
         <v>21</v>
@@ -7210,13 +7351,13 @@
         <v>19724</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>580</v>
+        <v>616</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>581</v>
+        <v>617</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>582</v>
+        <v>618</v>
       </c>
       <c r="M35" s="7">
         <v>40</v>
@@ -7225,19 +7366,19 @@
         <v>38960</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>583</v>
+        <v>619</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>127</v>
+        <v>620</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>584</v>
+        <v>621</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C36" s="7">
         <v>45</v>
@@ -7246,13 +7387,13 @@
         <v>46792</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>585</v>
+        <v>622</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>586</v>
+        <v>623</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>587</v>
+        <v>624</v>
       </c>
       <c r="H36" s="7">
         <v>26</v>
@@ -7261,13 +7402,13 @@
         <v>25339</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>588</v>
+        <v>625</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>589</v>
+        <v>626</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>590</v>
+        <v>627</v>
       </c>
       <c r="M36" s="7">
         <v>71</v>
@@ -7276,19 +7417,19 @@
         <v>72131</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>591</v>
+        <v>628</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>317</v>
+        <v>356</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>592</v>
+        <v>629</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C37" s="7">
         <v>16</v>
@@ -7297,13 +7438,13 @@
         <v>16922</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>593</v>
+        <v>159</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>594</v>
+        <v>630</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>595</v>
+        <v>631</v>
       </c>
       <c r="H37" s="7">
         <v>19</v>
@@ -7312,13 +7453,13 @@
         <v>18250</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>597</v>
+        <v>36</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>598</v>
+        <v>633</v>
       </c>
       <c r="M37" s="7">
         <v>35</v>
@@ -7327,19 +7468,19 @@
         <v>35173</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>599</v>
+        <v>634</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>600</v>
+        <v>635</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>601</v>
+        <v>636</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C38" s="7">
         <v>22</v>
@@ -7348,13 +7489,13 @@
         <v>22918</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>602</v>
+        <v>637</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>603</v>
+        <v>638</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>604</v>
+        <v>639</v>
       </c>
       <c r="H38" s="7">
         <v>7</v>
@@ -7363,13 +7504,13 @@
         <v>7949</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>605</v>
+        <v>640</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>76</v>
+        <v>117</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>606</v>
+        <v>641</v>
       </c>
       <c r="M38" s="7">
         <v>29</v>
@@ -7378,13 +7519,13 @@
         <v>30868</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>353</v>
+        <v>392</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>607</v>
+        <v>642</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>608</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -7399,13 +7540,13 @@
         <v>107502</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H39" s="7">
         <v>77</v>
@@ -7414,13 +7555,13 @@
         <v>75568</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M39" s="7">
         <v>180</v>
@@ -7429,18 +7570,18 @@
         <v>183071</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>239</v>
+        <v>278</v>
       </c>
       <c r="B40" s="5" t="s">
         <v>10</v>
@@ -7452,13 +7593,13 @@
         <v>71916</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>609</v>
+        <v>644</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>438</v>
+        <v>476</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>610</v>
+        <v>645</v>
       </c>
       <c r="H40" s="7">
         <v>67</v>
@@ -7467,13 +7608,13 @@
         <v>70190</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>611</v>
+        <v>646</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>612</v>
+        <v>647</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>613</v>
+        <v>648</v>
       </c>
       <c r="M40" s="7">
         <v>131</v>
@@ -7482,19 +7623,19 @@
         <v>142106</v>
       </c>
       <c r="O40" s="7" t="s">
-        <v>614</v>
+        <v>649</v>
       </c>
       <c r="P40" s="7" t="s">
-        <v>615</v>
+        <v>650</v>
       </c>
       <c r="Q40" s="7" t="s">
-        <v>616</v>
+        <v>651</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C41" s="7">
         <v>70</v>
@@ -7503,13 +7644,13 @@
         <v>78448</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>617</v>
+        <v>652</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>618</v>
+        <v>653</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>619</v>
+        <v>654</v>
       </c>
       <c r="H41" s="7">
         <v>63</v>
@@ -7518,13 +7659,13 @@
         <v>63887</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>620</v>
+        <v>655</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>621</v>
+        <v>656</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>622</v>
+        <v>657</v>
       </c>
       <c r="M41" s="7">
         <v>133</v>
@@ -7533,19 +7674,19 @@
         <v>142335</v>
       </c>
       <c r="O41" s="7" t="s">
-        <v>623</v>
+        <v>658</v>
       </c>
       <c r="P41" s="7" t="s">
-        <v>624</v>
+        <v>659</v>
       </c>
       <c r="Q41" s="7" t="s">
-        <v>625</v>
+        <v>660</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C42" s="7">
         <v>70</v>
@@ -7554,13 +7695,13 @@
         <v>79970</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>626</v>
+        <v>661</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>627</v>
+        <v>662</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>628</v>
+        <v>663</v>
       </c>
       <c r="H42" s="7">
         <v>70</v>
@@ -7569,13 +7710,13 @@
         <v>73788</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>629</v>
+        <v>664</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>630</v>
+        <v>665</v>
       </c>
       <c r="M42" s="7">
         <v>140</v>
@@ -7584,19 +7725,19 @@
         <v>153759</v>
       </c>
       <c r="O42" s="7" t="s">
-        <v>631</v>
+        <v>666</v>
       </c>
       <c r="P42" s="7" t="s">
-        <v>632</v>
+        <v>667</v>
       </c>
       <c r="Q42" s="7" t="s">
-        <v>633</v>
+        <v>668</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C43" s="7">
         <v>38</v>
@@ -7605,13 +7746,13 @@
         <v>47578</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>565</v>
+        <v>601</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>634</v>
+        <v>669</v>
       </c>
       <c r="H43" s="7">
         <v>31</v>
@@ -7620,13 +7761,13 @@
         <v>31481</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>635</v>
+        <v>670</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>636</v>
+        <v>671</v>
       </c>
       <c r="M43" s="7">
         <v>69</v>
@@ -7635,19 +7776,19 @@
         <v>79059</v>
       </c>
       <c r="O43" s="7" t="s">
-        <v>637</v>
+        <v>672</v>
       </c>
       <c r="P43" s="7" t="s">
-        <v>638</v>
+        <v>673</v>
       </c>
       <c r="Q43" s="7" t="s">
-        <v>639</v>
+        <v>674</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1"/>
       <c r="B44" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C44" s="7">
         <v>71</v>
@@ -7656,13 +7797,13 @@
         <v>82014</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>640</v>
+        <v>675</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>641</v>
+        <v>676</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>642</v>
+        <v>677</v>
       </c>
       <c r="H44" s="7">
         <v>43</v>
@@ -7671,13 +7812,13 @@
         <v>45520</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>643</v>
+        <v>678</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>644</v>
+        <v>679</v>
       </c>
       <c r="L44" s="7" t="s">
-        <v>645</v>
+        <v>680</v>
       </c>
       <c r="M44" s="7">
         <v>114</v>
@@ -7686,13 +7827,13 @@
         <v>127534</v>
       </c>
       <c r="O44" s="7" t="s">
-        <v>646</v>
+        <v>681</v>
       </c>
       <c r="P44" s="7" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="Q44" s="7" t="s">
-        <v>491</v>
+        <v>528</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
@@ -7707,13 +7848,13 @@
         <v>359926</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H45" s="7">
         <v>274</v>
@@ -7722,13 +7863,13 @@
         <v>284866</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M45" s="7">
         <v>587</v>
@@ -7737,18 +7878,18 @@
         <v>644792</v>
       </c>
       <c r="O45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q45" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>281</v>
+        <v>321</v>
       </c>
       <c r="B46" s="5" t="s">
         <v>10</v>
@@ -7760,13 +7901,13 @@
         <v>6665</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>381</v>
+        <v>420</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>647</v>
+        <v>682</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>648</v>
+        <v>683</v>
       </c>
       <c r="H46" s="7">
         <v>7</v>
@@ -7775,13 +7916,13 @@
         <v>7675</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>649</v>
+        <v>684</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>650</v>
+        <v>685</v>
       </c>
       <c r="L46" s="7" t="s">
-        <v>297</v>
+        <v>336</v>
       </c>
       <c r="M46" s="7">
         <v>13</v>
@@ -7790,19 +7931,19 @@
         <v>14340</v>
       </c>
       <c r="O46" s="7" t="s">
-        <v>651</v>
+        <v>686</v>
       </c>
       <c r="P46" s="7" t="s">
-        <v>652</v>
+        <v>687</v>
       </c>
       <c r="Q46" s="7" t="s">
-        <v>653</v>
+        <v>688</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C47" s="7">
         <v>19</v>
@@ -7811,13 +7952,13 @@
         <v>19928</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>654</v>
+        <v>689</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>655</v>
+        <v>690</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>656</v>
+        <v>691</v>
       </c>
       <c r="H47" s="7">
         <v>18</v>
@@ -7826,13 +7967,13 @@
         <v>18898</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>657</v>
+        <v>692</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>658</v>
+        <v>693</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>659</v>
+        <v>694</v>
       </c>
       <c r="M47" s="7">
         <v>37</v>
@@ -7841,19 +7982,19 @@
         <v>38826</v>
       </c>
       <c r="O47" s="7" t="s">
-        <v>660</v>
+        <v>695</v>
       </c>
       <c r="P47" s="7" t="s">
-        <v>661</v>
+        <v>696</v>
       </c>
       <c r="Q47" s="7" t="s">
-        <v>662</v>
+        <v>697</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C48" s="7">
         <v>62</v>
@@ -7862,13 +8003,13 @@
         <v>63916</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>663</v>
+        <v>698</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>664</v>
+        <v>699</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>596</v>
+        <v>632</v>
       </c>
       <c r="H48" s="7">
         <v>59</v>
@@ -7877,13 +8018,13 @@
         <v>61281</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>665</v>
+        <v>700</v>
       </c>
       <c r="L48" s="7" t="s">
-        <v>666</v>
+        <v>701</v>
       </c>
       <c r="M48" s="7">
         <v>121</v>
@@ -7892,19 +8033,19 @@
         <v>125197</v>
       </c>
       <c r="O48" s="7" t="s">
-        <v>667</v>
+        <v>702</v>
       </c>
       <c r="P48" s="7" t="s">
-        <v>341</v>
+        <v>381</v>
       </c>
       <c r="Q48" s="7" t="s">
-        <v>668</v>
+        <v>703</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1"/>
       <c r="B49" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C49" s="7">
         <v>142</v>
@@ -7913,13 +8054,13 @@
         <v>148887</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>669</v>
+        <v>704</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>670</v>
+        <v>705</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>671</v>
+        <v>706</v>
       </c>
       <c r="H49" s="7">
         <v>86</v>
@@ -7928,13 +8069,13 @@
         <v>89794</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>672</v>
+        <v>707</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>323</v>
+        <v>362</v>
       </c>
       <c r="L49" s="7" t="s">
-        <v>673</v>
+        <v>708</v>
       </c>
       <c r="M49" s="7">
         <v>228</v>
@@ -7943,19 +8084,19 @@
         <v>238681</v>
       </c>
       <c r="O49" s="7" t="s">
-        <v>674</v>
+        <v>709</v>
       </c>
       <c r="P49" s="7" t="s">
-        <v>675</v>
+        <v>710</v>
       </c>
       <c r="Q49" s="7" t="s">
-        <v>676</v>
+        <v>711</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1"/>
       <c r="B50" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C50" s="7">
         <v>86</v>
@@ -7964,13 +8105,13 @@
         <v>89541</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>677</v>
+        <v>712</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>679</v>
+        <v>714</v>
       </c>
       <c r="H50" s="7">
         <v>61</v>
@@ -7979,13 +8120,13 @@
         <v>62823</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>680</v>
+        <v>715</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>681</v>
+        <v>716</v>
       </c>
       <c r="L50" s="7" t="s">
-        <v>682</v>
+        <v>717</v>
       </c>
       <c r="M50" s="7">
         <v>147</v>
@@ -7994,13 +8135,13 @@
         <v>152364</v>
       </c>
       <c r="O50" s="7" t="s">
-        <v>683</v>
+        <v>718</v>
       </c>
       <c r="P50" s="7" t="s">
-        <v>684</v>
+        <v>719</v>
       </c>
       <c r="Q50" s="7" t="s">
-        <v>685</v>
+        <v>720</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
@@ -8015,13 +8156,13 @@
         <v>328937</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H51" s="7">
         <v>231</v>
@@ -8030,13 +8171,13 @@
         <v>240471</v>
       </c>
       <c r="J51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M51" s="7">
         <v>546</v>
@@ -8045,13 +8186,13 @@
         <v>569408</v>
       </c>
       <c r="O51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q51" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
@@ -8068,13 +8209,13 @@
         <v>208978</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>136</v>
+        <v>284</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>686</v>
+        <v>721</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>687</v>
+        <v>722</v>
       </c>
       <c r="H52" s="7">
         <v>187</v>
@@ -8083,13 +8224,13 @@
         <v>194402</v>
       </c>
       <c r="J52" s="7" t="s">
-        <v>688</v>
+        <v>723</v>
       </c>
       <c r="K52" s="7" t="s">
-        <v>689</v>
+        <v>724</v>
       </c>
       <c r="L52" s="7" t="s">
-        <v>690</v>
+        <v>725</v>
       </c>
       <c r="M52" s="7">
         <v>377</v>
@@ -8098,19 +8239,19 @@
         <v>403380</v>
       </c>
       <c r="O52" s="7" t="s">
-        <v>570</v>
+        <v>606</v>
       </c>
       <c r="P52" s="7" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
       <c r="Q52" s="7" t="s">
-        <v>691</v>
+        <v>726</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1"/>
       <c r="B53" s="5" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="C53" s="7">
         <v>168</v>
@@ -8119,13 +8260,13 @@
         <v>182394</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>692</v>
+        <v>727</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>693</v>
+        <v>728</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>694</v>
+        <v>729</v>
       </c>
       <c r="H53" s="7">
         <v>142</v>
@@ -8134,13 +8275,13 @@
         <v>143422</v>
       </c>
       <c r="J53" s="7" t="s">
-        <v>695</v>
+        <v>730</v>
       </c>
       <c r="K53" s="7" t="s">
-        <v>696</v>
+        <v>731</v>
       </c>
       <c r="L53" s="7" t="s">
-        <v>697</v>
+        <v>732</v>
       </c>
       <c r="M53" s="7">
         <v>310</v>
@@ -8149,19 +8290,19 @@
         <v>325816</v>
       </c>
       <c r="O53" s="7" t="s">
-        <v>482</v>
+        <v>519</v>
       </c>
       <c r="P53" s="7" t="s">
-        <v>607</v>
+        <v>642</v>
       </c>
       <c r="Q53" s="7" t="s">
-        <v>698</v>
+        <v>733</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1"/>
       <c r="B54" s="5" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C54" s="7">
         <v>306</v>
@@ -8170,13 +8311,13 @@
         <v>322826</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>699</v>
+        <v>734</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>700</v>
+        <v>735</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>701</v>
+        <v>736</v>
       </c>
       <c r="H54" s="7">
         <v>234</v>
@@ -8185,13 +8326,13 @@
         <v>236464</v>
       </c>
       <c r="J54" s="7" t="s">
-        <v>702</v>
+        <v>737</v>
       </c>
       <c r="K54" s="7" t="s">
-        <v>356</v>
+        <v>395</v>
       </c>
       <c r="L54" s="7" t="s">
-        <v>703</v>
+        <v>738</v>
       </c>
       <c r="M54" s="7">
         <v>540</v>
@@ -8200,19 +8341,19 @@
         <v>559290</v>
       </c>
       <c r="O54" s="7" t="s">
-        <v>704</v>
+        <v>739</v>
       </c>
       <c r="P54" s="7" t="s">
-        <v>705</v>
+        <v>740</v>
       </c>
       <c r="Q54" s="7" t="s">
-        <v>706</v>
+        <v>741</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1"/>
       <c r="B55" s="5" t="s">
-        <v>14</v>
+        <v>40</v>
       </c>
       <c r="C55" s="7">
         <v>299</v>
@@ -8221,13 +8362,13 @@
         <v>320729</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>678</v>
+        <v>713</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>707</v>
+        <v>742</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>708</v>
+        <v>743</v>
       </c>
       <c r="H55" s="7">
         <v>205</v>
@@ -8236,13 +8377,13 @@
         <v>207484</v>
       </c>
       <c r="J55" s="7" t="s">
-        <v>709</v>
+        <v>744</v>
       </c>
       <c r="K55" s="7" t="s">
-        <v>710</v>
+        <v>745</v>
       </c>
       <c r="L55" s="7" t="s">
-        <v>711</v>
+        <v>746</v>
       </c>
       <c r="M55" s="7">
         <v>504</v>
@@ -8251,19 +8392,19 @@
         <v>528213</v>
       </c>
       <c r="O55" s="7" t="s">
-        <v>712</v>
+        <v>747</v>
       </c>
       <c r="P55" s="7" t="s">
-        <v>606</v>
+        <v>641</v>
       </c>
       <c r="Q55" s="7" t="s">
-        <v>713</v>
+        <v>748</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1"/>
       <c r="B56" s="5" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="C56" s="7">
         <v>360</v>
@@ -8272,13 +8413,13 @@
         <v>387395</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>714</v>
+        <v>749</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>715</v>
+        <v>750</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>716</v>
+        <v>751</v>
       </c>
       <c r="H56" s="7">
         <v>245</v>
@@ -8287,13 +8428,13 @@
         <v>255401</v>
       </c>
       <c r="J56" s="7" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="K56" s="7" t="s">
-        <v>547</v>
+        <v>583</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>717</v>
+        <v>752</v>
       </c>
       <c r="M56" s="7">
         <v>605</v>
@@ -8302,13 +8443,13 @@
         <v>642796</v>
       </c>
       <c r="O56" s="7" t="s">
-        <v>541</v>
+        <v>577</v>
       </c>
       <c r="P56" s="7" t="s">
-        <v>718</v>
+        <v>753</v>
       </c>
       <c r="Q56" s="7" t="s">
-        <v>719</v>
+        <v>754</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
@@ -8323,13 +8464,13 @@
         <v>1422322</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H57" s="7">
         <v>1013</v>
@@ -8338,13 +8479,13 @@
         <v>1037172</v>
       </c>
       <c r="J57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="L57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="M57" s="7">
         <v>2336</v>
@@ -8353,18 +8494,18 @@
         <v>2459494</v>
       </c>
       <c r="O57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="Q57" s="7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
